--- a/KNIME_nodes_MD4DSP_mapping.xlsx
+++ b/KNIME_nodes_MD4DSP_mapping.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AED9371C-F1A1-43C5-AF91-23F1D547C60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\PycharmProjects\knime2model_MD4DSP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81A1F1E-81DF-40B2-A4CC-82BDEA75633A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>No contemplado en nuestra librería</t>
   </si>
@@ -96,9 +101,6 @@
     <t>rowFilter type: include rows by attribute value</t>
   </si>
   <si>
-    <t>rowFilterRange/rowFilter</t>
-  </si>
-  <si>
     <t>rowFilter type: exclude rows by attribute value</t>
   </si>
   <si>
@@ -211,6 +213,15 @@
   </si>
   <si>
     <t>Functions: capitalize, removeChars, compare, count, Function: countChars, indexOf, indexOfChars, join, joinStep, lastIndexOfChar, length, lowerCase, upperCase, md5Checksum, padLeft, padRight, regexMatcher, removeChars, removeDiacritic, removeDuplicates, regexReplace, removeUmlauts, reverse, string, strip, stripEnd, stripStart, substr, toBoolean, toDouble, toInt, toLong, toNull, toEmpty, urlEncode, urlDecode</t>
+  </si>
+  <si>
+    <t>rowFilterRange/rowFilterPrimitive/rowFilterMissing</t>
+  </si>
+  <si>
+    <t>rowFilterPrimitive</t>
+  </si>
+  <si>
+    <t>rowFilterMissing</t>
   </si>
 </sst>
 </file>
@@ -364,12 +375,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -379,10 +384,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -399,6 +404,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -747,47 +758,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z40" sqref="Z40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15" customHeight="1">
-      <c r="J1" s="21"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="2:13">
-      <c r="J2" s="21"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="2:13" ht="29.25" customHeight="1">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="2:13" ht="29.25" customHeight="1">
       <c r="B4" s="6" t="s">
@@ -796,516 +808,516 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="2:13">
       <c r="C5" s="2"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B7" s="27"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="2:13" ht="17.25" customHeight="1">
-      <c r="B8" s="27"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="2:13" ht="15" customHeight="1">
-      <c r="B9" s="27"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1">
-      <c r="B10" s="27"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1">
-      <c r="B11" s="27"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1">
-      <c r="B12" s="27"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1">
-      <c r="B13" s="27"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="2:13" ht="15" customHeight="1">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="26" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="2:13" ht="15" customHeight="1">
+      <c r="B16" s="26"/>
+      <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="2:13" ht="15" customHeight="1">
-      <c r="B16" s="28"/>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="2:8" ht="15" customHeight="1">
+      <c r="B17" s="26"/>
+      <c r="C17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="2:8" ht="15" customHeight="1">
-      <c r="B17" s="28"/>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="2:8" ht="15" customHeight="1">
+      <c r="B18" s="26"/>
+      <c r="C18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="2:8" ht="15" customHeight="1">
-      <c r="B18" s="28"/>
-      <c r="C18" s="16" t="s">
+      <c r="D18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="2:8" ht="15" customHeight="1">
+      <c r="B19" s="26"/>
+      <c r="C19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="2:8" ht="15" customHeight="1">
-      <c r="B19" s="28"/>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="2:8" ht="15" customHeight="1">
+      <c r="B20" s="26"/>
+      <c r="C20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="2:8" ht="15" customHeight="1">
-      <c r="B20" s="28"/>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="2:8" ht="15" customHeight="1">
+      <c r="B21" s="26"/>
+      <c r="C21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="2:8" ht="15" customHeight="1">
-      <c r="B21" s="28"/>
-      <c r="C21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="2:8" ht="15" customHeight="1">
+      <c r="B22" s="26"/>
+      <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="2:8" ht="15" customHeight="1">
-      <c r="B22" s="28"/>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="2:8" ht="14.4" customHeight="1">
+      <c r="B23" s="26"/>
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="28"/>
-      <c r="C23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="D23" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="2:8">
       <c r="C24" s="2"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="2:8" ht="15" customHeight="1">
       <c r="B25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="2:8" ht="15" customHeight="1">
       <c r="B27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="2:8" ht="63.75" customHeight="1">
       <c r="B29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="1"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="2:8">
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="2:8" ht="15">
       <c r="B31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="5"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="D33" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" spans="2:9" ht="15" customHeight="1">
       <c r="B34" s="29"/>
       <c r="C34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+        <v>42</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" customHeight="1">
       <c r="B35" s="29"/>
       <c r="C35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+        <v>43</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="29"/>
       <c r="C36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="29"/>
       <c r="C37" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="29"/>
       <c r="C38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="5"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="2:9" ht="72.75">
-      <c r="B40" s="26" t="s">
+    <row r="40" spans="2:9" ht="72">
+      <c r="B40" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:9" ht="28.8">
+      <c r="B41" s="24"/>
+      <c r="C41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="2:9" ht="29.25">
-      <c r="B41" s="26"/>
-      <c r="C41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
+      <c r="D41" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="2:9">
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="2:9" ht="29.25">
-      <c r="B43" s="28" t="s">
+    <row r="43" spans="2:9">
+      <c r="B43" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="2:9" ht="43.2">
+      <c r="B44" s="26"/>
+      <c r="C44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="2:9" ht="43.5">
-      <c r="B44" s="28"/>
-      <c r="C44" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
+      <c r="D44" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="2:9">
@@ -1318,18 +1330,18 @@
       <c r="H45" s="2"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="2:9" ht="15.75">
+    <row r="46" spans="2:9" ht="15.6">
       <c r="B46" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
+      <c r="D46" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="2:9" ht="15" customHeight="1">
@@ -1343,32 +1355,32 @@
     </row>
     <row r="48" spans="2:9" ht="37.5" customHeight="1">
       <c r="B48" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
+      <c r="D48" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="2:9" ht="130.5">
+    <row r="49" spans="2:9" ht="129.6">
       <c r="B49" s="30"/>
       <c r="C49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
+        <v>58</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="2:9">
@@ -1377,895 +1389,895 @@
     <row r="51" spans="2:9">
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="2:9" ht="15.75">
+    <row r="52" spans="2:9" ht="15.6">
       <c r="B52" s="10"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="2:9" ht="15.75">
+    <row r="53" spans="2:9" ht="15.6">
       <c r="B53" s="10"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="2:9" ht="15.75">
+    <row r="54" spans="2:9" ht="15.6">
       <c r="B54" s="10"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="2:9" ht="15.75">
+    <row r="55" spans="2:9" ht="15.6">
       <c r="B55" s="10"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="2:9" ht="15.75">
+    <row r="56" spans="2:9" ht="15.6">
       <c r="B56" s="10"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="2:9" ht="15.75">
+    <row r="57" spans="2:9" ht="15.6">
       <c r="B57" s="10"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-    </row>
-    <row r="58" spans="2:9" ht="15.75">
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+    </row>
+    <row r="58" spans="2:9" ht="15.6">
       <c r="B58" s="10"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
     </row>
     <row r="61" spans="2:9" ht="37.5" customHeight="1"/>
     <row r="63" spans="2:9">
       <c r="C63" s="14"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-    </row>
-    <row r="64" spans="2:9" ht="15.75">
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+    </row>
+    <row r="64" spans="2:9" ht="15.6">
       <c r="B64" s="10"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-    </row>
-    <row r="65" spans="2:8" ht="15.75">
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+    </row>
+    <row r="65" spans="2:8" ht="15.6">
       <c r="B65" s="10"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-    </row>
-    <row r="67" spans="2:8" ht="15.75">
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+    </row>
+    <row r="67" spans="2:8" ht="15.6">
       <c r="B67" s="10"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
     </row>
     <row r="68" spans="2:8">
       <c r="C68" s="2"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-    </row>
-    <row r="69" spans="2:8" ht="15.75">
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+    </row>
+    <row r="69" spans="2:8" ht="15.6">
       <c r="B69" s="10"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-    </row>
-    <row r="70" spans="2:8" ht="15.75">
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+    </row>
+    <row r="70" spans="2:8" ht="15.6">
       <c r="B70" s="10"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-    </row>
-    <row r="71" spans="2:8" ht="15.75">
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+    </row>
+    <row r="71" spans="2:8" ht="15.6">
       <c r="B71" s="11"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-    </row>
-    <row r="72" spans="2:8" ht="15.75">
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+    </row>
+    <row r="72" spans="2:8" ht="15.6">
       <c r="B72" s="10"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-    </row>
-    <row r="73" spans="2:8" ht="15.75">
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+    </row>
+    <row r="73" spans="2:8" ht="15.6">
       <c r="B73" s="10"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-    </row>
-    <row r="74" spans="2:8" ht="15.75">
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+    </row>
+    <row r="74" spans="2:8" ht="15.6">
       <c r="B74" s="10"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-    </row>
-    <row r="75" spans="2:8" ht="15.75">
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+    </row>
+    <row r="75" spans="2:8" ht="15.6">
       <c r="B75" s="10"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-    </row>
-    <row r="76" spans="2:8" ht="15.75">
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+    </row>
+    <row r="76" spans="2:8" ht="15.6">
       <c r="B76" s="11"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-    </row>
-    <row r="77" spans="2:8" ht="15.75">
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+    </row>
+    <row r="77" spans="2:8" ht="15.6">
       <c r="B77" s="10"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-    </row>
-    <row r="78" spans="2:8" ht="15.75">
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+    </row>
+    <row r="78" spans="2:8" ht="15.6">
       <c r="B78" s="10"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-    </row>
-    <row r="79" spans="2:8" ht="15.75">
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+    </row>
+    <row r="79" spans="2:8" ht="15.6">
       <c r="B79" s="10"/>
       <c r="C79" s="14"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-    </row>
-    <row r="80" spans="2:8" ht="15.75">
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+    </row>
+    <row r="80" spans="2:8" ht="15.6">
       <c r="B80" s="10"/>
       <c r="C80" s="14"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-    </row>
-    <row r="81" spans="2:8" ht="15.75">
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+    </row>
+    <row r="81" spans="2:8" ht="15.6">
       <c r="B81" s="10"/>
       <c r="C81" s="14"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-    </row>
-    <row r="82" spans="2:8" ht="15.75">
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+    </row>
+    <row r="82" spans="2:8" ht="15.6">
       <c r="B82" s="10"/>
       <c r="C82" s="14"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-    </row>
-    <row r="83" spans="2:8" ht="15.75">
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+    </row>
+    <row r="83" spans="2:8" ht="15.6">
       <c r="B83" s="10"/>
       <c r="C83" s="14"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-    </row>
-    <row r="84" spans="2:8" ht="15.75">
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+    </row>
+    <row r="84" spans="2:8" ht="15.6">
       <c r="B84" s="10"/>
       <c r="C84" s="14"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-    </row>
-    <row r="85" spans="2:8" ht="15.75">
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+    </row>
+    <row r="85" spans="2:8" ht="15.6">
       <c r="B85" s="10"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-    </row>
-    <row r="86" spans="2:8" ht="15.75">
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+    </row>
+    <row r="86" spans="2:8" ht="15.6">
       <c r="B86" s="10"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-    </row>
-    <row r="87" spans="2:8" ht="15.75">
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+    </row>
+    <row r="87" spans="2:8" ht="15.6">
       <c r="B87" s="10"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-    </row>
-    <row r="88" spans="2:8" ht="15.75">
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+    </row>
+    <row r="88" spans="2:8" ht="15.6">
       <c r="B88" s="12"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-    </row>
-    <row r="89" spans="2:8" ht="15.75">
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+    </row>
+    <row r="89" spans="2:8" ht="15.6">
       <c r="B89" s="12"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-    </row>
-    <row r="90" spans="2:8" ht="15.75">
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+    </row>
+    <row r="90" spans="2:8" ht="15.6">
       <c r="B90" s="12"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-    </row>
-    <row r="91" spans="2:8" ht="15.75">
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+    </row>
+    <row r="91" spans="2:8" ht="15.6">
       <c r="B91" s="12"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-    </row>
-    <row r="92" spans="2:8" ht="15.75">
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+    </row>
+    <row r="92" spans="2:8" ht="15.6">
       <c r="B92" s="12"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-    </row>
-    <row r="93" spans="2:8" ht="15.75">
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+    </row>
+    <row r="93" spans="2:8" ht="15.6">
       <c r="B93" s="12"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-    </row>
-    <row r="94" spans="2:8" ht="15.75">
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+    </row>
+    <row r="94" spans="2:8" ht="15.6">
       <c r="B94" s="12"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-    </row>
-    <row r="95" spans="2:8" ht="15.75">
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+    </row>
+    <row r="95" spans="2:8" ht="15.6">
       <c r="B95" s="12"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-    </row>
-    <row r="96" spans="2:8" ht="15.75">
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+    </row>
+    <row r="96" spans="2:8" ht="15.6">
       <c r="B96" s="12"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-    </row>
-    <row r="97" spans="2:8" ht="15.75">
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+    </row>
+    <row r="97" spans="2:8" ht="15.6">
       <c r="B97" s="12"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
-    </row>
-    <row r="98" spans="2:8" ht="15.75">
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+    </row>
+    <row r="98" spans="2:8" ht="15.6">
       <c r="B98" s="12"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
     </row>
     <row r="99" spans="2:8">
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
     </row>
     <row r="100" spans="2:8">
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
     </row>
     <row r="101" spans="2:8">
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
     </row>
     <row r="102" spans="2:8">
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
     </row>
     <row r="103" spans="2:8">
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
     </row>
     <row r="104" spans="2:8">
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
     </row>
     <row r="105" spans="2:8">
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
     </row>
     <row r="106" spans="2:8">
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
     </row>
     <row r="107" spans="2:8">
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="19"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
     </row>
     <row r="108" spans="2:8">
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
     </row>
     <row r="109" spans="2:8">
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
     </row>
     <row r="110" spans="2:8">
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
     </row>
     <row r="111" spans="2:8">
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="19"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
     </row>
     <row r="112" spans="2:8">
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
     </row>
     <row r="113" spans="4:8">
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
     </row>
     <row r="114" spans="4:8">
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
     </row>
     <row r="115" spans="4:8">
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
     </row>
     <row r="116" spans="4:8">
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="19"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
     </row>
     <row r="117" spans="4:8">
-      <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="19"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
     </row>
     <row r="118" spans="4:8">
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="19"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
     </row>
     <row r="119" spans="4:8">
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
     </row>
     <row r="120" spans="4:8">
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="19"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
     </row>
     <row r="121" spans="4:8">
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="19"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
     </row>
     <row r="122" spans="4:8">
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
     </row>
     <row r="123" spans="4:8">
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="19"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
     </row>
     <row r="124" spans="4:8">
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="19"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
     </row>
     <row r="125" spans="4:8">
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="19"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
     </row>
     <row r="126" spans="4:8">
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
     </row>
     <row r="127" spans="4:8">
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="19"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="17"/>
     </row>
     <row r="128" spans="4:8">
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="19"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="17"/>
     </row>
     <row r="129" spans="4:8">
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="19"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="17"/>
     </row>
     <row r="130" spans="4:8">
-      <c r="D130" s="19"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="19"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
     </row>
     <row r="131" spans="4:8">
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="19"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="17"/>
     </row>
     <row r="132" spans="4:8">
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="17"/>
     </row>
     <row r="133" spans="4:8">
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="19"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="17"/>
     </row>
     <row r="134" spans="4:8">
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="19"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="17"/>
     </row>
     <row r="135" spans="4:8">
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="19"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
+      <c r="H135" s="17"/>
     </row>
     <row r="136" spans="4:8">
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="17"/>
+      <c r="H136" s="17"/>
     </row>
     <row r="137" spans="4:8">
-      <c r="D137" s="19"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="19"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
+      <c r="H137" s="17"/>
     </row>
     <row r="138" spans="4:8">
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="19"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="17"/>
     </row>
     <row r="139" spans="4:8">
-      <c r="D139" s="19"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="19"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="17"/>
+      <c r="H139" s="17"/>
     </row>
     <row r="140" spans="4:8">
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="17"/>
     </row>
     <row r="141" spans="4:8">
-      <c r="D141" s="19"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="19"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="17"/>
     </row>
     <row r="142" spans="4:8">
-      <c r="D142" s="19"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="19"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
+      <c r="H142" s="17"/>
     </row>
     <row r="143" spans="4:8">
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="19"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="17"/>
     </row>
     <row r="144" spans="4:8">
-      <c r="D144" s="19"/>
-      <c r="E144" s="19"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="19"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="17"/>
     </row>
     <row r="145" spans="4:8">
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="19"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="17"/>
     </row>
     <row r="146" spans="4:8">
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="17"/>
+      <c r="H146" s="17"/>
     </row>
     <row r="147" spans="4:8">
-      <c r="D147" s="19"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="19"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="17"/>
     </row>
     <row r="148" spans="4:8">
-      <c r="D148" s="19"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="19"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
+      <c r="H148" s="17"/>
     </row>
     <row r="149" spans="4:8">
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="19"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="17"/>
     </row>
     <row r="150" spans="4:8">
-      <c r="D150" s="19"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="19"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="17"/>
+      <c r="H150" s="17"/>
     </row>
     <row r="151" spans="4:8">
-      <c r="D151" s="19"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="19"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
+      <c r="H151" s="17"/>
     </row>
     <row r="152" spans="4:8">
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="19"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="17"/>
+      <c r="H152" s="17"/>
     </row>
     <row r="153" spans="4:8">
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="17"/>
+      <c r="H153" s="17"/>
     </row>
     <row r="154" spans="4:8">
-      <c r="D154" s="19"/>
-      <c r="E154" s="19"/>
-      <c r="F154" s="19"/>
-      <c r="G154" s="19"/>
-      <c r="H154" s="19"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="17"/>
+      <c r="H154" s="17"/>
     </row>
     <row r="155" spans="4:8">
-      <c r="D155" s="19"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="19"/>
-      <c r="H155" s="19"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="17"/>
+      <c r="H155" s="17"/>
     </row>
     <row r="156" spans="4:8">
-      <c r="D156" s="19"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="19"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="17"/>
+      <c r="H156" s="17"/>
     </row>
     <row r="157" spans="4:8">
-      <c r="D157" s="19"/>
-      <c r="E157" s="19"/>
-      <c r="F157" s="19"/>
-      <c r="G157" s="19"/>
-      <c r="H157" s="19"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="17"/>
+      <c r="H157" s="17"/>
     </row>
     <row r="158" spans="4:8">
-      <c r="D158" s="19"/>
-      <c r="E158" s="19"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="19"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="17"/>
     </row>
     <row r="159" spans="4:8">
-      <c r="D159" s="19"/>
-      <c r="E159" s="19"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="19"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="17"/>
+      <c r="H159" s="17"/>
     </row>
     <row r="160" spans="4:8">
-      <c r="D160" s="19"/>
-      <c r="E160" s="19"/>
-      <c r="F160" s="19"/>
-      <c r="G160" s="19"/>
-      <c r="H160" s="19"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
     </row>
     <row r="161" spans="4:8">
-      <c r="D161" s="19"/>
-      <c r="E161" s="19"/>
-      <c r="F161" s="19"/>
-      <c r="G161" s="19"/>
-      <c r="H161" s="19"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="17"/>
+      <c r="H161" s="17"/>
     </row>
     <row r="162" spans="4:8">
-      <c r="D162" s="19"/>
-      <c r="E162" s="19"/>
-      <c r="F162" s="19"/>
-      <c r="G162" s="19"/>
-      <c r="H162" s="19"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="17"/>
+      <c r="H162" s="17"/>
     </row>
     <row r="163" spans="4:8">
-      <c r="D163" s="19"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="19"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17"/>
     </row>
     <row r="164" spans="4:8">
-      <c r="D164" s="19"/>
-      <c r="E164" s="19"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="19"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
     </row>
     <row r="165" spans="4:8">
-      <c r="D165" s="19"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="19"/>
-      <c r="G165" s="19"/>
-      <c r="H165" s="19"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
     </row>
     <row r="166" spans="4:8">
-      <c r="D166" s="19"/>
-      <c r="E166" s="19"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="19"/>
-      <c r="H166" s="19"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="17"/>
     </row>
     <row r="167" spans="4:8">
-      <c r="D167" s="19"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="19"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="17"/>
+      <c r="H167" s="17"/>
     </row>
     <row r="168" spans="4:8">
-      <c r="D168" s="19"/>
-      <c r="E168" s="19"/>
-      <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="19"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="17"/>
+      <c r="H168" s="17"/>
     </row>
     <row r="169" spans="4:8">
-      <c r="D169" s="19"/>
-      <c r="E169" s="19"/>
-      <c r="F169" s="19"/>
-      <c r="G169" s="19"/>
-      <c r="H169" s="19"/>
+      <c r="D169" s="17"/>
+      <c r="E169" s="17"/>
+      <c r="F169" s="17"/>
+      <c r="G169" s="17"/>
+      <c r="H169" s="17"/>
     </row>
     <row r="170" spans="4:8">
-      <c r="D170" s="19"/>
-      <c r="E170" s="19"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="19"/>
-      <c r="H170" s="19"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="17"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="17"/>
+      <c r="H170" s="17"/>
     </row>
     <row r="171" spans="4:8">
-      <c r="D171" s="19"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="19"/>
-      <c r="G171" s="19"/>
-      <c r="H171" s="19"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="17"/>
+      <c r="H171" s="17"/>
     </row>
     <row r="172" spans="4:8">
-      <c r="D172" s="19"/>
-      <c r="E172" s="19"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="19"/>
-      <c r="H172" s="19"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="171">
@@ -2350,30 +2362,33 @@
     <mergeCell ref="D108:H108"/>
     <mergeCell ref="D109:H109"/>
     <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
     <mergeCell ref="D18:H18"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D23:H23"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B6:B13"/>
@@ -2392,10 +2407,12 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:M2"/>
@@ -2405,10 +2422,6 @@
     <mergeCell ref="D85:H85"/>
     <mergeCell ref="D86:H86"/>
     <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
     <mergeCell ref="D74:H74"/>
     <mergeCell ref="D75:H75"/>
     <mergeCell ref="D76:H76"/>
@@ -2423,7 +2436,10 @@
     <mergeCell ref="D36:H36"/>
     <mergeCell ref="D37:H37"/>
     <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
     <mergeCell ref="D93:H93"/>
     <mergeCell ref="D81:H81"/>
     <mergeCell ref="D82:H82"/>
@@ -2436,10 +2452,6 @@
     <mergeCell ref="D71:H71"/>
     <mergeCell ref="D72:H72"/>
     <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KNIME_nodes_MD4DSP_mapping.xlsx
+++ b/KNIME_nodes_MD4DSP_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\PycharmProjects\knime2model_MD4DSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81A1F1E-81DF-40B2-A4CC-82BDEA75633A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B12BF14-F879-42E5-B511-A2926AEC9647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>No contemplado en nuestra librería</t>
   </si>
@@ -200,9 +200,6 @@
     <t>mapping</t>
   </si>
   <si>
-    <t>Otras expresiones con operadores: ? &lt; ?, ? &lt;= ?, ? = ?, ? &gt; ?, ? &gt;= ?, ? AND ?, ? IN ?, ? MATCHES ?, ? OR ?, ? XOR ?, FALSE, MISSING ?, NOT ?, TRUE</t>
-  </si>
-  <si>
     <t>String Replacer</t>
   </si>
   <si>
@@ -222,6 +219,12 @@
   </si>
   <si>
     <t>rowFilterMissing</t>
+  </si>
+  <si>
+    <t>Otras expresiones con operadores: ? AND ?, ? IN ?, ? MATCHES ?, ? OR ?, ? XOR ?, FALSE, MISSING ?, NOT ?, TRUE</t>
+  </si>
+  <si>
+    <t>expression: $column_name$ *operator* "num_operand" =&gt; "fix_val" siendo operator: &lt;, &lt;=, &gt;, &gt;=</t>
   </si>
 </sst>
 </file>
@@ -335,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -375,47 +378,50 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,47 +765,47 @@
   <dimension ref="B1:M172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z40" sqref="Z40"/>
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="58.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
     <col min="11" max="11" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15" customHeight="1">
-      <c r="J1" s="19"/>
-      <c r="K1" s="18" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="2:13">
-      <c r="J2" s="19"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="2:13" ht="29.25" customHeight="1">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="2:13" ht="29.25" customHeight="1">
       <c r="B4" s="6" t="s">
@@ -808,267 +814,267 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="2:13">
       <c r="C5" s="2"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B7" s="25"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="2:13" ht="17.25" customHeight="1">
-      <c r="B8" s="25"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="2:13" ht="15" customHeight="1">
-      <c r="B9" s="25"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1">
-      <c r="B10" s="25"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1">
-      <c r="B11" s="25"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1">
-      <c r="B12" s="25"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1">
-      <c r="B13" s="25"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="2:13" ht="15" customHeight="1">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="D15" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="2:13" ht="15" customHeight="1">
-      <c r="B16" s="26"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="D16" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1">
-      <c r="B17" s="26"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="D17" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1">
-      <c r="B18" s="26"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="D18" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1">
-      <c r="B19" s="26"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="D19" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1">
-      <c r="B20" s="26"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="D20" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1">
-      <c r="B21" s="26"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="D21" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1">
-      <c r="B22" s="26"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" spans="2:8" ht="14.4" customHeight="1">
-      <c r="B23" s="26"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="D23" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="24" spans="2:8">
       <c r="C24" s="2"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="2:8" ht="15" customHeight="1">
       <c r="B25" s="9" t="s">
@@ -1077,22 +1083,22 @@
       <c r="C25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="2:8" ht="15" customHeight="1">
       <c r="B27" s="9" t="s">
@@ -1101,22 +1107,22 @@
       <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="2:8" ht="63.75" customHeight="1">
       <c r="B29" s="8" t="s">
@@ -1125,265 +1131,279 @@
       <c r="C29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="1"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="2:8" ht="15">
       <c r="B31" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="5"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
     </row>
     <row r="34" spans="2:9" ht="15" customHeight="1">
-      <c r="B34" s="29"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B35" s="29"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="29"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="29"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="29"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="5"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="2:9" ht="72">
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="2:9" ht="28.8">
-      <c r="B41" s="24"/>
+    <row r="41" spans="2:9">
+      <c r="B41" s="19"/>
       <c r="C41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="2:9">
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="26" t="s">
+    <row r="43" spans="2:9" ht="14.4" customHeight="1">
+      <c r="B43" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="2:9" ht="43.2">
-      <c r="B44" s="26"/>
+    <row r="44" spans="2:9" ht="28.8">
+      <c r="B44" s="20"/>
       <c r="C44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:9" ht="28.8">
+      <c r="B45" s="20"/>
+      <c r="C45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="2:9" ht="15" customHeight="1">
+      <c r="B47" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="C47" s="2"/>
+      <c r="D47" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="2:9" ht="15.6">
-      <c r="B46" s="13" t="s">
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:9" ht="16.2" customHeight="1">
+      <c r="C48" s="2"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="2:9" ht="46.8" customHeight="1">
+      <c r="B49" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="20" t="s">
+      <c r="C49" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="2:9" ht="15" customHeight="1">
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="2:9" ht="37.5" customHeight="1">
-      <c r="B48" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="15" t="s">
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="2:9" ht="115.2">
+      <c r="B50" s="21"/>
+      <c r="C50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="2:9" ht="129.6">
-      <c r="B49" s="30"/>
-      <c r="C49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="27" t="s">
+      <c r="D50" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="2:9">
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="2:9">
@@ -1392,1003 +1412,923 @@
     <row r="52" spans="2:9" ht="15.6">
       <c r="B52" s="10"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="5"/>
     </row>
     <row r="53" spans="2:9" ht="15.6">
       <c r="B53" s="10"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="5"/>
     </row>
     <row r="54" spans="2:9" ht="15.6">
       <c r="B54" s="10"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
       <c r="I54" s="5"/>
     </row>
     <row r="55" spans="2:9" ht="15.6">
       <c r="B55" s="10"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
       <c r="I55" s="5"/>
     </row>
     <row r="56" spans="2:9" ht="15.6">
       <c r="B56" s="10"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
       <c r="I56" s="5"/>
     </row>
     <row r="57" spans="2:9" ht="15.6">
       <c r="B57" s="10"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
     </row>
     <row r="58" spans="2:9" ht="15.6">
       <c r="B58" s="10"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
     </row>
     <row r="61" spans="2:9" ht="37.5" customHeight="1"/>
     <row r="63" spans="2:9">
       <c r="C63" s="14"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
     </row>
     <row r="64" spans="2:9" ht="15.6">
       <c r="B64" s="10"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
     </row>
     <row r="65" spans="2:8" ht="15.6">
       <c r="B65" s="10"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
     </row>
     <row r="67" spans="2:8" ht="15.6">
       <c r="B67" s="10"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
     </row>
     <row r="68" spans="2:8">
       <c r="C68" s="2"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
     </row>
     <row r="69" spans="2:8" ht="15.6">
       <c r="B69" s="10"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
     </row>
     <row r="70" spans="2:8" ht="15.6">
       <c r="B70" s="10"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
     </row>
     <row r="71" spans="2:8" ht="15.6">
       <c r="B71" s="11"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
     </row>
     <row r="72" spans="2:8" ht="15.6">
       <c r="B72" s="10"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
     </row>
     <row r="73" spans="2:8" ht="15.6">
       <c r="B73" s="10"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
     </row>
     <row r="74" spans="2:8" ht="15.6">
       <c r="B74" s="10"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
     </row>
     <row r="75" spans="2:8" ht="15.6">
       <c r="B75" s="10"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
     </row>
     <row r="76" spans="2:8" ht="15.6">
       <c r="B76" s="11"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
     </row>
     <row r="77" spans="2:8" ht="15.6">
       <c r="B77" s="10"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
     </row>
     <row r="78" spans="2:8" ht="15.6">
       <c r="B78" s="10"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
     </row>
     <row r="79" spans="2:8" ht="15.6">
       <c r="B79" s="10"/>
       <c r="C79" s="14"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
     </row>
     <row r="80" spans="2:8" ht="15.6">
       <c r="B80" s="10"/>
       <c r="C80" s="14"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
     </row>
     <row r="81" spans="2:8" ht="15.6">
       <c r="B81" s="10"/>
       <c r="C81" s="14"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
     </row>
     <row r="82" spans="2:8" ht="15.6">
       <c r="B82" s="10"/>
       <c r="C82" s="14"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
     </row>
     <row r="83" spans="2:8" ht="15.6">
       <c r="B83" s="10"/>
       <c r="C83" s="14"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
     </row>
     <row r="84" spans="2:8" ht="15.6">
       <c r="B84" s="10"/>
       <c r="C84" s="14"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
     </row>
     <row r="85" spans="2:8" ht="15.6">
       <c r="B85" s="10"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
     </row>
     <row r="86" spans="2:8" ht="15.6">
       <c r="B86" s="10"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
     </row>
     <row r="87" spans="2:8" ht="15.6">
       <c r="B87" s="10"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
     </row>
     <row r="88" spans="2:8" ht="15.6">
       <c r="B88" s="12"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
     </row>
     <row r="89" spans="2:8" ht="15.6">
       <c r="B89" s="12"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
     </row>
     <row r="90" spans="2:8" ht="15.6">
       <c r="B90" s="12"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
     </row>
     <row r="91" spans="2:8" ht="15.6">
       <c r="B91" s="12"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
     </row>
     <row r="92" spans="2:8" ht="15.6">
       <c r="B92" s="12"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
     </row>
     <row r="93" spans="2:8" ht="15.6">
       <c r="B93" s="12"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
     </row>
     <row r="94" spans="2:8" ht="15.6">
       <c r="B94" s="12"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
     </row>
     <row r="95" spans="2:8" ht="15.6">
       <c r="B95" s="12"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
     </row>
     <row r="96" spans="2:8" ht="15.6">
       <c r="B96" s="12"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
     </row>
     <row r="97" spans="2:8" ht="15.6">
       <c r="B97" s="12"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
     </row>
     <row r="98" spans="2:8" ht="15.6">
       <c r="B98" s="12"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
     </row>
     <row r="99" spans="2:8">
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
     </row>
     <row r="100" spans="2:8">
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
     </row>
     <row r="101" spans="2:8">
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
     </row>
     <row r="102" spans="2:8">
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
     </row>
     <row r="103" spans="2:8">
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
     </row>
     <row r="104" spans="2:8">
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
     </row>
     <row r="105" spans="2:8">
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
     </row>
     <row r="106" spans="2:8">
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
     </row>
     <row r="107" spans="2:8">
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
     </row>
     <row r="108" spans="2:8">
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
     </row>
     <row r="109" spans="2:8">
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
     </row>
     <row r="110" spans="2:8">
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
     </row>
     <row r="111" spans="2:8">
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
     </row>
     <row r="112" spans="2:8">
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
     </row>
     <row r="113" spans="4:8">
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
     </row>
     <row r="114" spans="4:8">
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
     </row>
     <row r="115" spans="4:8">
-      <c r="D115" s="17"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="17"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
     </row>
     <row r="116" spans="4:8">
-      <c r="D116" s="17"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
-      <c r="H116" s="17"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
     </row>
     <row r="117" spans="4:8">
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
-      <c r="H117" s="17"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
     </row>
     <row r="118" spans="4:8">
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="17"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
     </row>
     <row r="119" spans="4:8">
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
     </row>
     <row r="120" spans="4:8">
-      <c r="D120" s="17"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="17"/>
-      <c r="G120" s="17"/>
-      <c r="H120" s="17"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
     </row>
     <row r="121" spans="4:8">
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="17"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18"/>
     </row>
     <row r="122" spans="4:8">
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="17"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="17"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="18"/>
+      <c r="H122" s="18"/>
     </row>
     <row r="123" spans="4:8">
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
-      <c r="H123" s="17"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
     </row>
     <row r="124" spans="4:8">
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="17"/>
-      <c r="G124" s="17"/>
-      <c r="H124" s="17"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
     </row>
     <row r="125" spans="4:8">
-      <c r="D125" s="17"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="17"/>
-      <c r="G125" s="17"/>
-      <c r="H125" s="17"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
     </row>
     <row r="126" spans="4:8">
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="17"/>
-      <c r="G126" s="17"/>
-      <c r="H126" s="17"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
     </row>
     <row r="127" spans="4:8">
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="17"/>
-      <c r="G127" s="17"/>
-      <c r="H127" s="17"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18"/>
     </row>
     <row r="128" spans="4:8">
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="17"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
     </row>
     <row r="129" spans="4:8">
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="17"/>
-      <c r="G129" s="17"/>
-      <c r="H129" s="17"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18"/>
     </row>
     <row r="130" spans="4:8">
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="17"/>
-      <c r="G130" s="17"/>
-      <c r="H130" s="17"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
     </row>
     <row r="131" spans="4:8">
-      <c r="D131" s="17"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="17"/>
-      <c r="G131" s="17"/>
-      <c r="H131" s="17"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
     </row>
     <row r="132" spans="4:8">
-      <c r="D132" s="17"/>
-      <c r="E132" s="17"/>
-      <c r="F132" s="17"/>
-      <c r="G132" s="17"/>
-      <c r="H132" s="17"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="18"/>
     </row>
     <row r="133" spans="4:8">
-      <c r="D133" s="17"/>
-      <c r="E133" s="17"/>
-      <c r="F133" s="17"/>
-      <c r="G133" s="17"/>
-      <c r="H133" s="17"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="18"/>
+      <c r="H133" s="18"/>
     </row>
     <row r="134" spans="4:8">
-      <c r="D134" s="17"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="17"/>
-      <c r="G134" s="17"/>
-      <c r="H134" s="17"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="18"/>
     </row>
     <row r="135" spans="4:8">
-      <c r="D135" s="17"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="17"/>
-      <c r="G135" s="17"/>
-      <c r="H135" s="17"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18"/>
     </row>
     <row r="136" spans="4:8">
-      <c r="D136" s="17"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="17"/>
-      <c r="G136" s="17"/>
-      <c r="H136" s="17"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="18"/>
+      <c r="H136" s="18"/>
     </row>
     <row r="137" spans="4:8">
-      <c r="D137" s="17"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="17"/>
-      <c r="G137" s="17"/>
-      <c r="H137" s="17"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="18"/>
+      <c r="H137" s="18"/>
     </row>
     <row r="138" spans="4:8">
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="17"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="17"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="18"/>
     </row>
     <row r="139" spans="4:8">
-      <c r="D139" s="17"/>
-      <c r="E139" s="17"/>
-      <c r="F139" s="17"/>
-      <c r="G139" s="17"/>
-      <c r="H139" s="17"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
     </row>
     <row r="140" spans="4:8">
-      <c r="D140" s="17"/>
-      <c r="E140" s="17"/>
-      <c r="F140" s="17"/>
-      <c r="G140" s="17"/>
-      <c r="H140" s="17"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
     </row>
     <row r="141" spans="4:8">
-      <c r="D141" s="17"/>
-      <c r="E141" s="17"/>
-      <c r="F141" s="17"/>
-      <c r="G141" s="17"/>
-      <c r="H141" s="17"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="18"/>
     </row>
     <row r="142" spans="4:8">
-      <c r="D142" s="17"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="17"/>
-      <c r="G142" s="17"/>
-      <c r="H142" s="17"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="18"/>
+      <c r="G142" s="18"/>
+      <c r="H142" s="18"/>
     </row>
     <row r="143" spans="4:8">
-      <c r="D143" s="17"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
-      <c r="H143" s="17"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18"/>
     </row>
     <row r="144" spans="4:8">
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="17"/>
-      <c r="G144" s="17"/>
-      <c r="H144" s="17"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="18"/>
+      <c r="H144" s="18"/>
     </row>
     <row r="145" spans="4:8">
-      <c r="D145" s="17"/>
-      <c r="E145" s="17"/>
-      <c r="F145" s="17"/>
-      <c r="G145" s="17"/>
-      <c r="H145" s="17"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="18"/>
+      <c r="F145" s="18"/>
+      <c r="G145" s="18"/>
+      <c r="H145" s="18"/>
     </row>
     <row r="146" spans="4:8">
-      <c r="D146" s="17"/>
-      <c r="E146" s="17"/>
-      <c r="F146" s="17"/>
-      <c r="G146" s="17"/>
-      <c r="H146" s="17"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="18"/>
+      <c r="H146" s="18"/>
     </row>
     <row r="147" spans="4:8">
-      <c r="D147" s="17"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="17"/>
-      <c r="G147" s="17"/>
-      <c r="H147" s="17"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="18"/>
+      <c r="G147" s="18"/>
+      <c r="H147" s="18"/>
     </row>
     <row r="148" spans="4:8">
-      <c r="D148" s="17"/>
-      <c r="E148" s="17"/>
-      <c r="F148" s="17"/>
-      <c r="G148" s="17"/>
-      <c r="H148" s="17"/>
+      <c r="D148" s="18"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="18"/>
+      <c r="G148" s="18"/>
+      <c r="H148" s="18"/>
     </row>
     <row r="149" spans="4:8">
-      <c r="D149" s="17"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="17"/>
-      <c r="G149" s="17"/>
-      <c r="H149" s="17"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
     </row>
     <row r="150" spans="4:8">
-      <c r="D150" s="17"/>
-      <c r="E150" s="17"/>
-      <c r="F150" s="17"/>
-      <c r="G150" s="17"/>
-      <c r="H150" s="17"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
     </row>
     <row r="151" spans="4:8">
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="17"/>
-      <c r="G151" s="17"/>
-      <c r="H151" s="17"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
     </row>
     <row r="152" spans="4:8">
-      <c r="D152" s="17"/>
-      <c r="E152" s="17"/>
-      <c r="F152" s="17"/>
-      <c r="G152" s="17"/>
-      <c r="H152" s="17"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="18"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="18"/>
+      <c r="H152" s="18"/>
     </row>
     <row r="153" spans="4:8">
-      <c r="D153" s="17"/>
-      <c r="E153" s="17"/>
-      <c r="F153" s="17"/>
-      <c r="G153" s="17"/>
-      <c r="H153" s="17"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
     </row>
     <row r="154" spans="4:8">
-      <c r="D154" s="17"/>
-      <c r="E154" s="17"/>
-      <c r="F154" s="17"/>
-      <c r="G154" s="17"/>
-      <c r="H154" s="17"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
     </row>
     <row r="155" spans="4:8">
-      <c r="D155" s="17"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="17"/>
-      <c r="G155" s="17"/>
-      <c r="H155" s="17"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="18"/>
     </row>
     <row r="156" spans="4:8">
-      <c r="D156" s="17"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="17"/>
-      <c r="G156" s="17"/>
-      <c r="H156" s="17"/>
+      <c r="D156" s="18"/>
+      <c r="E156" s="18"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="18"/>
+      <c r="H156" s="18"/>
     </row>
     <row r="157" spans="4:8">
-      <c r="D157" s="17"/>
-      <c r="E157" s="17"/>
-      <c r="F157" s="17"/>
-      <c r="G157" s="17"/>
-      <c r="H157" s="17"/>
+      <c r="D157" s="18"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="18"/>
+      <c r="G157" s="18"/>
+      <c r="H157" s="18"/>
     </row>
     <row r="158" spans="4:8">
-      <c r="D158" s="17"/>
-      <c r="E158" s="17"/>
-      <c r="F158" s="17"/>
-      <c r="G158" s="17"/>
-      <c r="H158" s="17"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="18"/>
+      <c r="G158" s="18"/>
+      <c r="H158" s="18"/>
     </row>
     <row r="159" spans="4:8">
-      <c r="D159" s="17"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="17"/>
-      <c r="G159" s="17"/>
-      <c r="H159" s="17"/>
+      <c r="D159" s="18"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="18"/>
+      <c r="H159" s="18"/>
     </row>
     <row r="160" spans="4:8">
-      <c r="D160" s="17"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="17"/>
-      <c r="G160" s="17"/>
-      <c r="H160" s="17"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="18"/>
+      <c r="F160" s="18"/>
+      <c r="G160" s="18"/>
+      <c r="H160" s="18"/>
     </row>
     <row r="161" spans="4:8">
-      <c r="D161" s="17"/>
-      <c r="E161" s="17"/>
-      <c r="F161" s="17"/>
-      <c r="G161" s="17"/>
-      <c r="H161" s="17"/>
+      <c r="D161" s="18"/>
+      <c r="E161" s="18"/>
+      <c r="F161" s="18"/>
+      <c r="G161" s="18"/>
+      <c r="H161" s="18"/>
     </row>
     <row r="162" spans="4:8">
-      <c r="D162" s="17"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="17"/>
-      <c r="G162" s="17"/>
-      <c r="H162" s="17"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="18"/>
+      <c r="F162" s="18"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="18"/>
     </row>
     <row r="163" spans="4:8">
-      <c r="D163" s="17"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="17"/>
-      <c r="G163" s="17"/>
-      <c r="H163" s="17"/>
+      <c r="D163" s="18"/>
+      <c r="E163" s="18"/>
+      <c r="F163" s="18"/>
+      <c r="G163" s="18"/>
+      <c r="H163" s="18"/>
     </row>
     <row r="164" spans="4:8">
-      <c r="D164" s="17"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="17"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
+      <c r="D164" s="18"/>
+      <c r="E164" s="18"/>
+      <c r="F164" s="18"/>
+      <c r="G164" s="18"/>
+      <c r="H164" s="18"/>
     </row>
     <row r="165" spans="4:8">
-      <c r="D165" s="17"/>
-      <c r="E165" s="17"/>
-      <c r="F165" s="17"/>
-      <c r="G165" s="17"/>
-      <c r="H165" s="17"/>
+      <c r="D165" s="18"/>
+      <c r="E165" s="18"/>
+      <c r="F165" s="18"/>
+      <c r="G165" s="18"/>
+      <c r="H165" s="18"/>
     </row>
     <row r="166" spans="4:8">
-      <c r="D166" s="17"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="17"/>
-      <c r="G166" s="17"/>
-      <c r="H166" s="17"/>
+      <c r="D166" s="18"/>
+      <c r="E166" s="18"/>
+      <c r="F166" s="18"/>
+      <c r="G166" s="18"/>
+      <c r="H166" s="18"/>
     </row>
     <row r="167" spans="4:8">
-      <c r="D167" s="17"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="17"/>
-      <c r="G167" s="17"/>
-      <c r="H167" s="17"/>
+      <c r="D167" s="18"/>
+      <c r="E167" s="18"/>
+      <c r="F167" s="18"/>
+      <c r="G167" s="18"/>
+      <c r="H167" s="18"/>
     </row>
     <row r="168" spans="4:8">
-      <c r="D168" s="17"/>
-      <c r="E168" s="17"/>
-      <c r="F168" s="17"/>
-      <c r="G168" s="17"/>
-      <c r="H168" s="17"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="18"/>
     </row>
     <row r="169" spans="4:8">
-      <c r="D169" s="17"/>
-      <c r="E169" s="17"/>
-      <c r="F169" s="17"/>
-      <c r="G169" s="17"/>
-      <c r="H169" s="17"/>
+      <c r="D169" s="18"/>
+      <c r="E169" s="18"/>
+      <c r="F169" s="18"/>
+      <c r="G169" s="18"/>
+      <c r="H169" s="18"/>
     </row>
     <row r="170" spans="4:8">
-      <c r="D170" s="17"/>
-      <c r="E170" s="17"/>
-      <c r="F170" s="17"/>
-      <c r="G170" s="17"/>
-      <c r="H170" s="17"/>
+      <c r="D170" s="18"/>
+      <c r="E170" s="18"/>
+      <c r="F170" s="18"/>
+      <c r="G170" s="18"/>
+      <c r="H170" s="18"/>
     </row>
     <row r="171" spans="4:8">
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="17"/>
-      <c r="G171" s="17"/>
-      <c r="H171" s="17"/>
+      <c r="D171" s="18"/>
+      <c r="E171" s="18"/>
+      <c r="F171" s="18"/>
+      <c r="G171" s="18"/>
+      <c r="H171" s="18"/>
     </row>
     <row r="172" spans="4:8">
-      <c r="D172" s="17"/>
-      <c r="E172" s="17"/>
-      <c r="F172" s="17"/>
-      <c r="G172" s="17"/>
-      <c r="H172" s="17"/>
+      <c r="D172" s="18"/>
+      <c r="E172" s="18"/>
+      <c r="F172" s="18"/>
+      <c r="G172" s="18"/>
+      <c r="H172" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="171">
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D170:H170"/>
-    <mergeCell ref="D171:H171"/>
-    <mergeCell ref="D145:H145"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="D147:H147"/>
-    <mergeCell ref="D148:H148"/>
-    <mergeCell ref="D149:H149"/>
-    <mergeCell ref="D150:H150"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D134:H134"/>
-    <mergeCell ref="D135:H135"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="D137:H137"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D141:H141"/>
-    <mergeCell ref="D172:H172"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D43:H43"/>
+  <mergeCells count="175">
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B43:B45"/>
     <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D161:H161"/>
-    <mergeCell ref="D162:H162"/>
-    <mergeCell ref="D163:H163"/>
-    <mergeCell ref="D164:H164"/>
-    <mergeCell ref="D165:H165"/>
-    <mergeCell ref="D166:H166"/>
-    <mergeCell ref="D167:H167"/>
-    <mergeCell ref="D168:H168"/>
-    <mergeCell ref="D169:H169"/>
-    <mergeCell ref="D152:H152"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D155:H155"/>
-    <mergeCell ref="D156:H156"/>
-    <mergeCell ref="D157:H157"/>
-    <mergeCell ref="D158:H158"/>
-    <mergeCell ref="D159:H159"/>
-    <mergeCell ref="D160:H160"/>
-    <mergeCell ref="D143:H143"/>
-    <mergeCell ref="D144:H144"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="D121:H121"/>
-    <mergeCell ref="D122:H122"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D129:H129"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="D131:H131"/>
-    <mergeCell ref="D132:H132"/>
-    <mergeCell ref="D133:H133"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:M2"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D53:H53"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B6:B13"/>
@@ -2413,30 +2353,15 @@
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="D14:H14"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:M2"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D98:H98"/>
     <mergeCell ref="D54:H54"/>
     <mergeCell ref="D55:H55"/>
     <mergeCell ref="D56:H56"/>
@@ -2452,6 +2377,105 @@
     <mergeCell ref="D71:H71"/>
     <mergeCell ref="D72:H72"/>
     <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D121:H121"/>
+    <mergeCell ref="D122:H122"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="D131:H131"/>
+    <mergeCell ref="D132:H132"/>
+    <mergeCell ref="D133:H133"/>
+    <mergeCell ref="D172:H172"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D161:H161"/>
+    <mergeCell ref="D162:H162"/>
+    <mergeCell ref="D163:H163"/>
+    <mergeCell ref="D164:H164"/>
+    <mergeCell ref="D165:H165"/>
+    <mergeCell ref="D166:H166"/>
+    <mergeCell ref="D167:H167"/>
+    <mergeCell ref="D168:H168"/>
+    <mergeCell ref="D169:H169"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D155:H155"/>
+    <mergeCell ref="D156:H156"/>
+    <mergeCell ref="D157:H157"/>
+    <mergeCell ref="D158:H158"/>
+    <mergeCell ref="D159:H159"/>
+    <mergeCell ref="D160:H160"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D170:H170"/>
+    <mergeCell ref="D171:H171"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="D147:H147"/>
+    <mergeCell ref="D148:H148"/>
+    <mergeCell ref="D149:H149"/>
+    <mergeCell ref="D150:H150"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D134:H134"/>
+    <mergeCell ref="D135:H135"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="D137:H137"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D141:H141"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KNIME_nodes_MD4DSP_mapping.xlsx
+++ b/KNIME_nodes_MD4DSP_mapping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t xml:space="preserve">No contemplado en nuestra librería</t>
   </si>
@@ -44,186 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">Missing Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number (double): Fix Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imputeByFixValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number (double): Most Frequent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imputeByDerivedValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number (double): Previous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number (double): Next</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number (double): Mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imputeByNumericOp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number (double): Median</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number (double): Linear Interpolation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number (double): Closets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Row Filter (deprecated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilter type: include rows by attribute value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilterRange/rowFilterPrimitive/rowFilterMissing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilter type: exclude rows by attribute value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilter type: include rows by number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilter type: exclude rows by number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilter type: include rows by rowID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilter type: exclude rows by rowID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matching criteria: use pattern matching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilterPrimitive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matching criteria: use range checking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilterRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matching criteria: only missing values match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilterMissing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">included_columns --&gt; out_columns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">columnFilter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String to Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categoricalToContinuous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numeric Outliers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sólo mappeado para la configuración - convertir todos los Outliers al valor permitido más cercano utilizando el cálculo de cuartil R_4 y el multiplicador de rango intercuartílico: 1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numeric Binner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">binner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto-Binner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binning method: fixed number of bins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binning method: Sample quantiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bin_naming: numbered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bin naming: borders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bin naming: midpoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Force integer bounds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Math Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limitación de mapping - Sólo hecho para dos operandos (columnas o valores fijos) de operaciones SUMA, RESTA, MULTIPLICACIÓN y DIVISIÓN. El mapping del resto de operaciones mátemáticas queda para ser extendidas en el futuro, así como un número diferente de operandos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mathOpFieldField / mathOpFieldFixValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otras operaciones: '/', '*', 'log', 'exp',... con otros operadores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rule Engine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expression: $column_name$ LIKE "*fix_val*" =&gt; "fix_val"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expression: $column_name$ *operator* "num_operand" =&gt; "fix_val" siendo operator: &lt;, &lt;=, &gt;, &gt;=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otras expresiones con operadores: ? AND ?, ? IN ?, ? MATCHES ?, ? OR ?, ? XOR ?, FALSE, MISSING ?, NOT ?, TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String Replacer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String Manipulation - String Manipulation (Multi Column)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Expresión con function: replace, replaceChars o substr. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Limitación para aplicarlo sobre una sóla columna de entrada</t>
-    </r>
   </si>
   <si>
     <r>
@@ -234,8 +54,24 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Functions: capitalize, removeChars, compare, count, countChars, indexOf, indexOfChars, join, joinStep, lastIndexOfChar, length, lowerCase, upperCase, md5Checksum, padLeft, padRight, regexMatcher, removeChars, removeDiacritic, removeDuplicates, regexReplace, removeUmlauts, reverse, string, strip, stripEnd, stripStart, toBoolean, toDouble, toInt, toLong, toNull, toEmpty, urlEncode, urlDecode. </t>
+      <t xml:space="preserve">Replacement type (String and Number): </t>
     </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fix Value</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">imputeByFixValue</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -243,14 +79,378 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Un ejemplo de función no mappeada es la función join($Name$, " - ", $City$)</t>
+      <t xml:space="preserve">Replacement type (String and Number): </t>
     </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Most Frequent</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">imputeByDerivedValue</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Replacement type (String and Number): </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Previous</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Replacement type (String and Number): </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Next</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Replacement type (Number): </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Maximum</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Replacement type (Number): </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Minimum</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">8/12 configuraciones mapeadas – 66%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Replacement type (Number): </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Moving Average</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Replacement type (String): </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Remove Row</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Replacement type (Number): </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mean</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">imputeByNumericOp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Replacement type (Number): </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Median</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Replacement type (Number): </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Linear Interpolation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Replacement type (Number): </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Closest</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Row Filter (deprecated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilter type: include rows by attribute value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilterRange/rowFilterPrimitive/rowFilterMissing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilter type: exclude rows by attribute value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilter type: include rows by number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilter type: exclude rows by number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilter type: include rows by rowID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilter type: exclude rows by rowID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matching criteria: use pattern matching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilterPrimitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matching criteria: use range checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilterRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matching criteria: only missing values match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilterMissing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">included_columns --&gt; out_columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">columnFilter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String to Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categoricalToContinuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numeric Outliers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sólo mappeado para la configuración - convertir todos los Outliers al valor permitido más cercano utilizando el cálculo de cuartil R_4 y el multiplicador de rango intercuartílico: 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numeric Binner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto-Binner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binning method: fixed number of bins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binning method: Sample quantiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bin_naming: numbered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bin naming: borders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bin naming: midpoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Force integer bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limitación de mapping - Sólo hecho para dos operandos (columnas o valores fijos) de operaciones SUMA, RESTA, MULTIPLICACIÓN y DIVISIÓN. El mapping del resto de operaciones mátemáticas queda para ser extendidas en el futuro, así como un número diferente de operandos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mathOpFieldField / mathOpFieldFixValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otras operaciones: '/', '*', 'log', 'exp',... con otros operadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rule Engine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expression: $column_name$ LIKE "*fix_val*" =&gt; "fix_val"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expression: $column_name$ *operator* "num_operand" =&gt; "fix_val" siendo operator: &lt;, &lt;=, &gt;, &gt;=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otras expresiones con operadores: ? AND ?, ? IN ?, ? MATCHES ?, ? OR ?, ? XOR ?, FALSE, MISSING ?, NOT ?, TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String Replacer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String Manipulation - String Manipulation (Multi Column)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expresión con function: replace, replaceChars o substr. Limitación para aplicarlo sobre una sóla columna de entrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functions: capitalize, removeChars, compare, count, countChars, indexOf, indexOfChars, join, joinStep, lastIndexOfChar, length, lowerCase, upperCase, md5Checksum, padLeft, padRight, regexMatcher, removeChars, removeDiacritic, removeDuplicates, regexReplace, removeUmlauts, reverse, string, strip, stripEnd, stripStart, toBoolean, toDouble, toInt, toLong, toNull, toEmpty, urlEncode, urlDecode. Un ejemplo de función no mappeada es la función join($Name$, " - ", $City$)</t>
   </si>
   <si>
     <t xml:space="preserve">Column Expressions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expresión con function: replace, replaceChars o substr. Limitación para aplicarlo sobre una sóla columna de entrada</t>
   </si>
   <si>
     <t xml:space="preserve">Expresión matemática únicamente con dos operandos (columnas o valores fijos) de operaciones SUMA, RESTA, MULTIPLICACIÓN y DIVISIÓN. El mapping del resto de operaciones mátemáticas queda para ser extendidas en el futuro, así como un número diferente de operandos, así como ocurre en el mapeo de dichas operaciones para el nodo MathFormula</t>
@@ -266,7 +466,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -309,14 +509,41 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="JetBrains Mono"/>
-      <family val="0"/>
+      <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -332,18 +559,6 @@
       <name val="Aptos Narrow"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -413,7 +628,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -454,7 +669,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -462,7 +677,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -478,12 +701,32 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -491,54 +734,34 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -619,10 +842,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:M172"/>
+  <dimension ref="B1:M176"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -710,7 +933,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="10"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -723,7 +946,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="10"/>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -734,9 +957,9 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="10"/>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -747,71 +970,77 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="10"/>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="10"/>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="10"/>
-      <c r="C12" s="8" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="10"/>
-      <c r="C13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="14"/>
+      <c r="C14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>20</v>
+      <c r="B15" s="14"/>
+      <c r="C15" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>21</v>
@@ -822,9 +1051,9 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="12"/>
-      <c r="C16" s="13" t="s">
-        <v>22</v>
+      <c r="B16" s="14"/>
+      <c r="C16" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>21</v>
@@ -835,137 +1064,138 @@
       <c r="H16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="12"/>
-      <c r="C17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="12"/>
-      <c r="C18" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="12"/>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+      <c r="C19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="12"/>
-      <c r="C20" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="12"/>
-      <c r="C22" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="12"/>
-      <c r="C23" s="13" t="s">
+      <c r="D22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="10"/>
+      <c r="C23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="10"/>
+      <c r="C24" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="D24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="17"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="16" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="10"/>
+      <c r="C26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>34</v>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="10"/>
+      <c r="C27" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -973,7 +1203,6 @@
       <c r="H27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="14"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -981,15 +1210,15 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -997,7 +1226,8 @@
       <c r="H29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="14"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -1006,11 +1236,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="14"/>
       <c r="D31" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1018,7 +1250,7 @@
       <c r="H31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="13"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -1026,370 +1258,384 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>43</v>
+    <row r="33" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="19"/>
-      <c r="C34" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="19"/>
-      <c r="C35" s="13" t="s">
-        <v>45</v>
-      </c>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="16"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="16"/>
       <c r="D35" s="11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
-      <c r="I35" s="13"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="19"/>
-      <c r="C36" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="13"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="15"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="19"/>
-      <c r="C37" s="13" t="s">
+      <c r="B37" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="13"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="19"/>
-      <c r="C38" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="13"/>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="13"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="40" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="8" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="21"/>
+      <c r="C38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D38" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="21"/>
+      <c r="C39" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="13"/>
+      <c r="D39" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="15"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="21"/>
+      <c r="C40" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="15"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="10"/>
-      <c r="C41" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="20" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="13"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="13"/>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="12" t="s">
+      <c r="D41" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="21"/>
+      <c r="C42" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="D42" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="15"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="C44" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="13"/>
-    </row>
-    <row r="44" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="12"/>
-      <c r="C44" s="8" t="s">
+      <c r="D44" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
-      <c r="I44" s="13"/>
-    </row>
-    <row r="45" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="12"/>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="22"/>
       <c r="C45" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="13"/>
+      <c r="D45" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="15"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="13"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="23" t="s">
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="15"/>
+    </row>
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="8"/>
+      <c r="C47" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="D47" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
-      <c r="I47" s="13"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="13"/>
-    </row>
-    <row r="49" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="25" t="s">
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="10"/>
+      <c r="C48" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="15"/>
+    </row>
+    <row r="49" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="10"/>
+      <c r="C49" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="13"/>
-    </row>
-    <row r="50" customFormat="false" ht="68.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="24"/>
-      <c r="C50" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="13"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I51" s="13"/>
-    </row>
-    <row r="52" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="13"/>
-    </row>
-    <row r="53" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="24"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C52" s="8"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="15"/>
+    </row>
+    <row r="53" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="C53" s="27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
-      <c r="I53" s="13"/>
-    </row>
-    <row r="54" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="24"/>
-      <c r="C54" s="27" t="s">
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" customFormat="false" ht="68.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="26"/>
+      <c r="C54" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="15"/>
+    </row>
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D54" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="13"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="28"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="13"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="28"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="13"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="28"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="28"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-    </row>
-    <row r="61" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="29"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="28"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="28"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-    </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="28"/>
+      <c r="D56" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="15"/>
+    </row>
+    <row r="57" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B57" s="26"/>
+      <c r="C57" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="15"/>
+    </row>
+    <row r="58" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="26"/>
+      <c r="C58" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="15"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="30"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="15"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="30"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="15"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="30"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="30"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+    </row>
+    <row r="65" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="31"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="8"/>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="30"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
@@ -1397,17 +1643,14 @@
       <c r="H68" s="9"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="28"/>
-      <c r="C69" s="8"/>
+      <c r="B69" s="30"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="28"/>
-      <c r="C70" s="8"/>
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
@@ -1416,15 +1659,13 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="30"/>
-      <c r="C71" s="8"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="28"/>
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="8"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -1433,7 +1674,7 @@
       <c r="H72" s="9"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="28"/>
+      <c r="B73" s="30"/>
       <c r="C73" s="8"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -1442,7 +1683,7 @@
       <c r="H73" s="9"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="28"/>
+      <c r="B74" s="30"/>
       <c r="C74" s="8"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -1451,7 +1692,7 @@
       <c r="H74" s="9"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="28"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="8"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -1469,7 +1710,7 @@
       <c r="H76" s="9"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="28"/>
+      <c r="B77" s="30"/>
       <c r="C77" s="8"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -1478,7 +1719,7 @@
       <c r="H77" s="9"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="28"/>
+      <c r="B78" s="30"/>
       <c r="C78" s="8"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -1487,8 +1728,8 @@
       <c r="H78" s="9"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="28"/>
-      <c r="C79" s="29"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="8"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
@@ -1496,8 +1737,8 @@
       <c r="H79" s="9"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="28"/>
-      <c r="C80" s="29"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="8"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
@@ -1505,8 +1746,8 @@
       <c r="H80" s="9"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="28"/>
-      <c r="C81" s="29"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="8"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
@@ -1514,8 +1755,8 @@
       <c r="H81" s="9"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="28"/>
-      <c r="C82" s="29"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="8"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
@@ -1523,8 +1764,8 @@
       <c r="H82" s="9"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="28"/>
-      <c r="C83" s="29"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="31"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
@@ -1532,8 +1773,8 @@
       <c r="H83" s="9"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="28"/>
-      <c r="C84" s="29"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="31"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
@@ -1541,7 +1782,8 @@
       <c r="H84" s="9"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="28"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="31"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
@@ -1549,7 +1791,8 @@
       <c r="H85" s="9"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="28"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="31"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
@@ -1557,7 +1800,8 @@
       <c r="H86" s="9"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="28"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="31"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
@@ -1565,7 +1809,8 @@
       <c r="H87" s="9"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="31"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
@@ -1573,7 +1818,7 @@
       <c r="H88" s="9"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="31"/>
+      <c r="B89" s="30"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
@@ -1581,7 +1826,7 @@
       <c r="H89" s="9"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="31"/>
+      <c r="B90" s="30"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
@@ -1589,7 +1834,7 @@
       <c r="H90" s="9"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="31"/>
+      <c r="B91" s="30"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
@@ -1597,7 +1842,7 @@
       <c r="H91" s="9"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="31"/>
+      <c r="B92" s="33"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
@@ -1605,7 +1850,7 @@
       <c r="H92" s="9"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="31"/>
+      <c r="B93" s="33"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
@@ -1613,7 +1858,7 @@
       <c r="H93" s="9"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="31"/>
+      <c r="B94" s="33"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
@@ -1621,7 +1866,7 @@
       <c r="H94" s="9"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="31"/>
+      <c r="B95" s="33"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
@@ -1629,7 +1874,7 @@
       <c r="H95" s="9"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="31"/>
+      <c r="B96" s="33"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
@@ -1637,7 +1882,7 @@
       <c r="H96" s="9"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="31"/>
+      <c r="B97" s="33"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
@@ -1645,35 +1890,39 @@
       <c r="H97" s="9"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="31"/>
+      <c r="B98" s="33"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="33"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="33"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="33"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="33"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
@@ -2170,8 +2419,36 @@
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
     </row>
+    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="9"/>
+    </row>
+    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
+    </row>
+    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
+    </row>
+    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="176">
+  <mergeCells count="181">
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:M2"/>
     <mergeCell ref="B3:H3"/>
@@ -2179,21 +2456,22 @@
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B6:B11"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
+    <mergeCell ref="B12:B17"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="D14:H14"/>
-    <mergeCell ref="B15:B23"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="D17:H17"/>
     <mergeCell ref="D18:H18"/>
+    <mergeCell ref="B19:B27"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="D21:H21"/>
@@ -2208,40 +2486,40 @@
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="D31:H31"/>
     <mergeCell ref="D32:H32"/>
-    <mergeCell ref="B33:B38"/>
     <mergeCell ref="D33:H33"/>
     <mergeCell ref="D34:H34"/>
     <mergeCell ref="D35:H35"/>
     <mergeCell ref="D36:H36"/>
+    <mergeCell ref="B37:B42"/>
     <mergeCell ref="D37:H37"/>
     <mergeCell ref="D38:H38"/>
     <mergeCell ref="D39:H39"/>
-    <mergeCell ref="B40:B41"/>
     <mergeCell ref="D40:H40"/>
     <mergeCell ref="D41:H41"/>
     <mergeCell ref="D42:H42"/>
-    <mergeCell ref="B43:B45"/>
     <mergeCell ref="D43:H43"/>
+    <mergeCell ref="B44:B45"/>
     <mergeCell ref="D44:H44"/>
     <mergeCell ref="D45:H45"/>
     <mergeCell ref="D46:H46"/>
+    <mergeCell ref="B47:B49"/>
     <mergeCell ref="D47:H47"/>
     <mergeCell ref="D48:H48"/>
-    <mergeCell ref="B49:B50"/>
     <mergeCell ref="D49:H49"/>
     <mergeCell ref="D50:H50"/>
-    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="D51:H51"/>
     <mergeCell ref="D52:H52"/>
+    <mergeCell ref="B53:B54"/>
     <mergeCell ref="D53:H53"/>
     <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="B56:B58"/>
     <mergeCell ref="D56:H56"/>
     <mergeCell ref="D57:H57"/>
     <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D62:H62"/>
     <mergeCell ref="D67:H67"/>
     <mergeCell ref="D68:H68"/>
     <mergeCell ref="D69:H69"/>
@@ -2348,6 +2626,10 @@
     <mergeCell ref="D170:H170"/>
     <mergeCell ref="D171:H171"/>
     <mergeCell ref="D172:H172"/>
+    <mergeCell ref="D173:H173"/>
+    <mergeCell ref="D174:H174"/>
+    <mergeCell ref="D175:H175"/>
+    <mergeCell ref="D176:H176"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/KNIME_nodes_MD4DSP_mapping.xlsx
+++ b/KNIME_nodes_MD4DSP_mapping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
   <si>
     <t xml:space="preserve">No contemplado en nuestra librería</t>
   </si>
@@ -78,6 +78,7 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Replacement type (String and Number): </t>
     </r>
@@ -103,6 +104,7 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Replacement type (String and Number): </t>
     </r>
@@ -125,6 +127,7 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Replacement type (String and Number): </t>
     </r>
@@ -135,6 +138,7 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Next</t>
     </r>
@@ -146,6 +150,7 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Replacement type (Number): </t>
     </r>
@@ -156,6 +161,7 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Maximum</t>
     </r>
@@ -170,6 +176,7 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Replacement type (Number): </t>
     </r>
@@ -180,11 +187,130 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Minimum</t>
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Replacement type (Number): </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Moving Average</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Replacement type (String): </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Remove Row</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Replacement type (Number): </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mean</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">imputeByNumericOp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Replacement type (Number): </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Median</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Replacement type (Number): </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Linear Interpolation</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">8/12 configuraciones mapeadas – 66%</t>
   </si>
   <si>
@@ -194,6 +320,7 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Replacement type (Number): </t>
     </r>
@@ -204,223 +331,217 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Moving Average</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Replacement type (String): </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Remove Row</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Replacement type (Number): </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Mean</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">imputeByNumericOp</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Replacement type (Number): </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t xml:space="preserve">Closest</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Row Filter (deprecated)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Median</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Replacement type (Number): </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t xml:space="preserve">rowFilter type: include rows by attribute value | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">matching criteria: use pattern matching</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilterPrimitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilter type: include rows by attribute value | matching criteria: use range checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilterRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilter type: include rows by attribute value | matching criteria: only missing values match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilterMissing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilter type: exclude rows by attribute value | matching criteria: use pattern matching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilter type: exclude rows by attribute value | matching criteria: use range checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilter type: exclude rows by attribute value | matching criteria: only missing values match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilter type: include rows by number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilter type: exclude rows by number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilter type: include rows by rowID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/10  configuraciones mapeadas – 60%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowFilter type: exclude rows by rowID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">included_columns --&gt; out_columns | Column filter option: Manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">columnFilter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">included_columns --&gt; out_columns | Column filter option: Wildcard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">included_columns --&gt; out_columns | Column filter option: Regex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¼ configuraciones mapeadas – 25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">included_columns --&gt; out_columns | Column filter option: Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String to Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categoricalToContinuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3 configuraciones mapeadas – 33%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numeric Outliers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sólo mappeado para la configuración - convertir todos los Outliers al valor permitido más cercano utilizando el cálculo de cuartil R_4 y el multiplicador de rango intercuartílico: 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configuraciones mapeadas – SIN DETERMINAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resto de configuraciones relativas a los parámetros: Interquartile range multiplier (k), quartile calculation, Oulier treatment: apply to., treatment option, replacement strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numeric Binner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/1 configuraciones mapeadas – 100%%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto-Binner</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Linear Interpolation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Replacement type (Number): </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t xml:space="preserve">Binning method: fixed number of bins | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Bin_naming: numbered</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Closest</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Row Filter (deprecated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilter type: include rows by attribute value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilterRange/rowFilterPrimitive/rowFilterMissing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilter type: exclude rows by attribute value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilter type: include rows by number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilter type: exclude rows by number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilter type: include rows by rowID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilter type: exclude rows by rowID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matching criteria: use pattern matching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilterPrimitive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matching criteria: use range checking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilterRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matching criteria: only missing values match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilterMissing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">included_columns --&gt; out_columns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">columnFilter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String to Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categoricalToContinuous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numeric Outliers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sólo mappeado para la configuración - convertir todos los Outliers al valor permitido más cercano utilizando el cálculo de cuartil R_4 y el multiplicador de rango intercuartílico: 1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numeric Binner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">binner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto-Binner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binning method: fixed number of bins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binning method: Sample quantiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bin_naming: numbered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bin naming: borders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bin naming: midpoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Force integer bounds</t>
+      <t xml:space="preserve">Binning method: Sample quantiles </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">| Bin_naming: numbered</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Binning method: fixed number of bins | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bin_naming: borders</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Binning method: Sample quantiles | Bin_naming: borders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binning method: fixed number of bins | Bin_naming: midpoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/6 configuraciones mapeadas – 16%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binning method: Sample quantiles | Bin_naming: midpoints</t>
   </si>
   <si>
     <t xml:space="preserve">Math Formula</t>
   </si>
   <si>
-    <t xml:space="preserve">Limitación de mapping - Sólo hecho para dos operandos (columnas o valores fijos) de operaciones SUMA, RESTA, MULTIPLICACIÓN y DIVISIÓN. El mapping del resto de operaciones mátemáticas queda para ser extendidas en el futuro, así como un número diferente de operandos.</t>
+    <t xml:space="preserve">Limitación de mapping - Sólo hecho para dos operandos (columnas o valores fijos) de operaciones SUMA, RESTA, MULTIPLICACIÓN y DIVISIÓN. El mapping del resto de operaciones mátemáticas queda para ser extendidas en el futuro, así como un número diferente de operandos. Mapeo actual: caso base con 2 operandos y 1 operador.</t>
   </si>
   <si>
     <t xml:space="preserve">mathOpFieldField / mathOpFieldFixValue</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras operaciones: '/', '*', 'log', 'exp',... con otros operadores</t>
+    <t xml:space="preserve">4/71 configuraciones mapeadas – 5.63%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otras operaciones: 'log', 'exp', sen(x), cos(x), tan(x),… con múltiples operadores y operandos (caso general)</t>
   </si>
   <si>
     <t xml:space="preserve">Rule Engine</t>
@@ -435,25 +556,46 @@
     <t xml:space="preserve">expression: $column_name$ *operator* "num_operand" =&gt; "fix_val" siendo operator: &lt;, &lt;=, &gt;, &gt;=</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras expresiones con operadores: ? AND ?, ? IN ?, ? MATCHES ?, ? OR ?, ? XOR ?, FALSE, MISSING ?, NOT ?, TRUE</t>
+    <t xml:space="preserve">5/16 configuraciones mapeadas – 31.25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otras expresiones con operadores: ? AND ?, ? IN ?, ? MATCHES ?, ? OR ?, ? XOR ?, FALSE, MISSING ?, NOT ?, TRUE o expresiones más complejas</t>
   </si>
   <si>
     <t xml:space="preserve">String Replacer</t>
   </si>
   <si>
+    <t xml:space="preserve">Patern – Replacement text | Replacement type: Literal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patern – Replacement text | Replacement type: Wildcard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⅓ configuraciones mapeadas – 33%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patern – Replacement text | Replacement type: Regex</t>
+  </si>
+  <si>
     <t xml:space="preserve">String Manipulation - String Manipulation (Multi Column)</t>
   </si>
   <si>
     <t xml:space="preserve">Expresión con function: replace, replaceChars o substr. Limitación para aplicarlo sobre una sóla columna de entrada</t>
   </si>
   <si>
-    <t xml:space="preserve">Functions: capitalize, removeChars, compare, count, countChars, indexOf, indexOfChars, join, joinStep, lastIndexOfChar, length, lowerCase, upperCase, md5Checksum, padLeft, padRight, regexMatcher, removeChars, removeDiacritic, removeDuplicates, regexReplace, removeUmlauts, reverse, string, strip, stripEnd, stripStart, toBoolean, toDouble, toInt, toLong, toNull, toEmpty, urlEncode, urlDecode. Un ejemplo de función no mappeada es la función join($Name$, " - ", $City$)</t>
+    <t xml:space="preserve">3/53 configuraciones mapeadas – 5.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functions: capitalize, removeChars, compare, count, countChars, indexOf, indexOfChars, join, joinStep, lastIndexOfChar, length, lowerCase, upperCase, md5Checksum, padLeft, padRight, regexMatcher, removeChars, removeDiacritic, removeDuplicates, regexReplace, removeUmlauts, reverse, string, strip, stripEnd, stripStart, toBoolean, toDouble, toInt, toLong, toNull, toEmpty, urlEncode, urlDecode. Tampoco es posible mappear funciones anidadas. Un ejemplo de función no mappeada es la función join($Name$, " - ", $City$)</t>
   </si>
   <si>
     <t xml:space="preserve">Column Expressions</t>
   </si>
   <si>
     <t xml:space="preserve">Expresión matemática únicamente con dos operandos (columnas o valores fijos) de operaciones SUMA, RESTA, MULTIPLICACIÓN y DIVISIÓN. El mapping del resto de operaciones mátemáticas queda para ser extendidas en el futuro, así como un número diferente de operandos, así como ocurre en el mapeo de dichas operaciones para el nodo MathFormula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/185 configuraciones mapeadas – 3.78%</t>
   </si>
   <si>
     <t xml:space="preserve">Resto de funciones de manipulación de strings, operaciones matemáticas, HTML, accesos, operaciones lógicas o de manipulación del path. Un ejemplo de función de manipulación de strings no mappeada es la función join($Name$, " - ", $City$)</t>
@@ -463,10 +605,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -521,23 +664,16 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
@@ -628,7 +764,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -677,7 +813,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -685,83 +821,103 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -842,16 +998,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:M176"/>
+  <dimension ref="B1:M186"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="96.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="99.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.11"/>
   </cols>
@@ -997,11 +1153,9 @@
       <c r="H11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>15</v>
@@ -1012,9 +1166,9 @@
       <c r="H12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="14"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>15</v>
@@ -1025,12 +1179,12 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="14"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -1038,12 +1192,12 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="14"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -1051,12 +1205,12 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="14"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -1064,12 +1218,14 @@
       <c r="H16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="14"/>
+      <c r="B17" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="C17" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -1090,21 +1246,21 @@
       <c r="C19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="10"/>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -1113,168 +1269,177 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="10"/>
-      <c r="C21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="C21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="10"/>
-      <c r="C22" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="C22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="10"/>
-      <c r="C23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="C23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="10"/>
-      <c r="C24" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="10"/>
-      <c r="C25" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="C25" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="10"/>
-      <c r="C26" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="10"/>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="18" t="s">
+      <c r="C28" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="C30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="19"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="D30" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="16"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="20" t="s">
+      <c r="D31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="19"/>
+      <c r="C32" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="16"/>
+      <c r="C33" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="22"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -1282,276 +1447,287 @@
       <c r="H34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="16"/>
+      <c r="B35" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="D35" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="15"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="15" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="19"/>
+      <c r="C36" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="21"/>
-      <c r="C38" s="8" t="s">
+      <c r="C37" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="18"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="15"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="21"/>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="15"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="21"/>
-      <c r="C40" s="15" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="27.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="15"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="21"/>
-      <c r="C41" s="15" t="s">
+      <c r="C40" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="21"/>
-      <c r="C42" s="15" t="s">
+      <c r="D40" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="18"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="15"/>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="15"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="15"/>
-    </row>
-    <row r="44" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="22" t="s">
+      <c r="C42" s="18"/>
+      <c r="D42" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B43" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="C43" s="18"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="15"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="15"/>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="22"/>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="28"/>
+      <c r="C46" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="15"/>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
       <c r="I46" s="15"/>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="8" t="s">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="28"/>
+      <c r="C47" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="28"/>
+      <c r="C48" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="15"/>
-    </row>
-    <row r="48" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="10"/>
-      <c r="C48" s="8" t="s">
+      <c r="D48" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="15"/>
+    </row>
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="28"/>
+      <c r="C49" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="15"/>
-    </row>
-    <row r="49" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="10"/>
-      <c r="C49" s="8" t="s">
+      <c r="D49" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="C50" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="15"/>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="15"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C52" s="8"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
+    <row r="52" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" customFormat="false" ht="68.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="26"/>
-      <c r="C54" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
       <c r="I55" s="15"/>
     </row>
-    <row r="56" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>66</v>
+    <row r="56" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="10"/>
+      <c r="C56" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
@@ -1559,113 +1735,197 @@
       <c r="H56" s="11"/>
       <c r="I56" s="15"/>
     </row>
-    <row r="57" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="26"/>
-      <c r="C57" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="26"/>
-      <c r="C58" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="24" t="s">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="15"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B59" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="15"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="31"/>
+      <c r="C60" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="15"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="30"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="15"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="30"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="30"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="30"/>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C62" s="8"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
-    </row>
-    <row r="65" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="31"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="30"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
+      <c r="I62" s="15"/>
+    </row>
+    <row r="63" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B63" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="15"/>
+    </row>
+    <row r="64" customFormat="false" ht="54.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B64" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="15"/>
+    </row>
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I65" s="15"/>
+    </row>
+    <row r="66" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B66" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="15"/>
+    </row>
+    <row r="67" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B67" s="32"/>
+      <c r="C67" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="15"/>
+    </row>
+    <row r="68" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="30"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="8"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
-    </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I69" s="15"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="35"/>
+      <c r="C70" s="8"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
+      <c r="I70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="30"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="8"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="35"/>
       <c r="C72" s="8"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -1673,45 +1933,9 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="30"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="30"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="32"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="30"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="30"/>
-      <c r="C77" s="8"/>
+    <row r="75" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="36"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -1719,8 +1943,7 @@
       <c r="H77" s="9"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="30"/>
-      <c r="C78" s="8"/>
+      <c r="B78" s="35"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
@@ -1728,17 +1951,14 @@
       <c r="H78" s="9"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="30"/>
-      <c r="C79" s="8"/>
+      <c r="B79" s="35"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="32"/>
-      <c r="C80" s="8"/>
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
@@ -1746,16 +1966,14 @@
       <c r="H80" s="9"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="30"/>
-      <c r="C81" s="8"/>
+      <c r="B81" s="35"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="30"/>
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="8"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
@@ -1764,8 +1982,8 @@
       <c r="H82" s="9"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="30"/>
-      <c r="C83" s="31"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="8"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
@@ -1773,8 +1991,8 @@
       <c r="H83" s="9"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="30"/>
-      <c r="C84" s="31"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="8"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
@@ -1782,8 +2000,8 @@
       <c r="H84" s="9"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="30"/>
-      <c r="C85" s="31"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="8"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
@@ -1791,8 +2009,8 @@
       <c r="H85" s="9"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="30"/>
-      <c r="C86" s="31"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="8"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
@@ -1800,8 +2018,8 @@
       <c r="H86" s="9"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="30"/>
-      <c r="C87" s="31"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="8"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
@@ -1809,8 +2027,8 @@
       <c r="H87" s="9"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="30"/>
-      <c r="C88" s="31"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="8"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
@@ -1818,7 +2036,8 @@
       <c r="H88" s="9"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="30"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="8"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
@@ -1826,7 +2045,8 @@
       <c r="H89" s="9"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="30"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="8"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
@@ -1834,7 +2054,8 @@
       <c r="H90" s="9"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="30"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="8"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
@@ -1842,7 +2063,8 @@
       <c r="H91" s="9"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="33"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="8"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
@@ -1850,7 +2072,8 @@
       <c r="H92" s="9"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="33"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="36"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
@@ -1858,7 +2081,8 @@
       <c r="H93" s="9"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="33"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="36"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
@@ -1866,7 +2090,8 @@
       <c r="H94" s="9"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="33"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="36"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
@@ -1874,7 +2099,8 @@
       <c r="H95" s="9"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="33"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="36"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
@@ -1882,7 +2108,8 @@
       <c r="H96" s="9"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="33"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="36"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
@@ -1890,7 +2117,8 @@
       <c r="H97" s="9"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="33"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="36"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
@@ -1898,7 +2126,7 @@
       <c r="H98" s="9"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="33"/>
+      <c r="B99" s="35"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
@@ -1906,7 +2134,7 @@
       <c r="H99" s="9"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="33"/>
+      <c r="B100" s="35"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
@@ -1914,7 +2142,7 @@
       <c r="H100" s="9"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="33"/>
+      <c r="B101" s="35"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
@@ -1922,77 +2150,87 @@
       <c r="H101" s="9"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="33"/>
+      <c r="B102" s="38"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="38"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="38"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="38"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="38"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="38"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="38"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="38"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="38"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="38"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="38"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
@@ -2447,8 +2685,78 @@
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
     </row>
+    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+    </row>
+    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
+    </row>
+    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D179" s="9"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+    </row>
+    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+    </row>
+    <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
+    </row>
+    <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
+    </row>
+    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="9"/>
+    </row>
+    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
+    </row>
+    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D185" s="9"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="9"/>
+    </row>
+    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="181">
+  <mergeCells count="189">
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:M2"/>
     <mergeCell ref="B3:H3"/>
@@ -2456,14 +2764,13 @@
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B6:B16"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
-    <mergeCell ref="B12:B17"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="D14:H14"/>
@@ -2483,53 +2790,52 @@
     <mergeCell ref="D27:H27"/>
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="D29:H29"/>
+    <mergeCell ref="B30:B32"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="D31:H31"/>
     <mergeCell ref="D32:H32"/>
     <mergeCell ref="D33:H33"/>
     <mergeCell ref="D34:H34"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="D35:H35"/>
     <mergeCell ref="D36:H36"/>
-    <mergeCell ref="B37:B42"/>
     <mergeCell ref="D37:H37"/>
     <mergeCell ref="D38:H38"/>
     <mergeCell ref="D39:H39"/>
     <mergeCell ref="D40:H40"/>
     <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="D42:H43"/>
     <mergeCell ref="D44:H44"/>
+    <mergeCell ref="B45:B49"/>
     <mergeCell ref="D45:H45"/>
     <mergeCell ref="D46:H46"/>
-    <mergeCell ref="B47:B49"/>
     <mergeCell ref="D47:H47"/>
     <mergeCell ref="D48:H48"/>
     <mergeCell ref="D49:H49"/>
     <mergeCell ref="D50:H50"/>
     <mergeCell ref="D51:H51"/>
     <mergeCell ref="D52:H52"/>
-    <mergeCell ref="B53:B54"/>
     <mergeCell ref="D53:H53"/>
     <mergeCell ref="D54:H54"/>
-    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:H55"/>
     <mergeCell ref="D56:H56"/>
     <mergeCell ref="D57:H57"/>
     <mergeCell ref="D58:H58"/>
+    <mergeCell ref="B59:B60"/>
     <mergeCell ref="D59:H59"/>
     <mergeCell ref="D60:H60"/>
     <mergeCell ref="D61:H61"/>
     <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D66:H66"/>
     <mergeCell ref="D67:H67"/>
     <mergeCell ref="D68:H68"/>
     <mergeCell ref="D69:H69"/>
     <mergeCell ref="D70:H70"/>
     <mergeCell ref="D71:H71"/>
     <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
     <mergeCell ref="D77:H77"/>
     <mergeCell ref="D78:H78"/>
     <mergeCell ref="D79:H79"/>
@@ -2630,6 +2936,16 @@
     <mergeCell ref="D174:H174"/>
     <mergeCell ref="D175:H175"/>
     <mergeCell ref="D176:H176"/>
+    <mergeCell ref="D177:H177"/>
+    <mergeCell ref="D178:H178"/>
+    <mergeCell ref="D179:H179"/>
+    <mergeCell ref="D180:H180"/>
+    <mergeCell ref="D181:H181"/>
+    <mergeCell ref="D182:H182"/>
+    <mergeCell ref="D183:H183"/>
+    <mergeCell ref="D184:H184"/>
+    <mergeCell ref="D185:H185"/>
+    <mergeCell ref="D186:H186"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/KNIME_nodes_MD4DSP_mapping.xlsx
+++ b/KNIME_nodes_MD4DSP_mapping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
   <si>
     <t xml:space="preserve">No contemplado en nuestra librería</t>
   </si>
@@ -348,98 +348,708 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">rowFilter type: include rows by attribute value | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">matching criteria: use pattern matching</t>
+      <t xml:space="preserve">rowFilter type:</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> include rows by attribute value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> | matching criteria: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">use pattern matching</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">rowFilterPrimitive</t>
   </si>
   <si>
-    <t xml:space="preserve">rowFilter type: include rows by attribute value | matching criteria: use range checking</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rowFilter type:</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> include rows by attribute value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> | matching criteria:</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> use range checking</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">rowFilterRange</t>
   </si>
   <si>
-    <t xml:space="preserve">rowFilter type: include rows by attribute value | matching criteria: only missing values match</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rowFilter type: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">include rows by attribute value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> | matching criteria: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">only missing values match</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">rowFilterMissing</t>
   </si>
   <si>
-    <t xml:space="preserve">rowFilter type: exclude rows by attribute value | matching criteria: use pattern matching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilter type: exclude rows by attribute value | matching criteria: use range checking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilter type: exclude rows by attribute value | matching criteria: only missing values match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilter type: include rows by number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilter type: exclude rows by number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowFilter type: include rows by rowID</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rowFilter type:</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> exclude rows by attribute value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> | matching criteria:</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> use pattern matching</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rowFilter type: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">exclude rows by attribute value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">| matching criteria: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">use range checking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rowFilter type: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">exclude rows by attribute value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> | matching criteria: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">only missing values match</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rowFilter type: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">include rows by number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rowFilter type: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">exclude rows by number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rowFilter type: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">include rows by rowID</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">6/10  configuraciones mapeadas – 60%</t>
   </si>
   <si>
-    <t xml:space="preserve">rowFilter type: exclude rows by rowID</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rowFilter type: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">exclude rows by rowID</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Column Filter</t>
   </si>
   <si>
-    <t xml:space="preserve">included_columns --&gt; out_columns | Column filter option: Manual</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">included_columns --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">out_columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> | Column filter option: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Manual</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">columnFilter</t>
   </si>
   <si>
-    <t xml:space="preserve">included_columns --&gt; out_columns | Column filter option: Wildcard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">included_columns --&gt; out_columns | Column filter option: Regex</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">included_columns --&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> out_columns </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">| Column filter option: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Wildcard</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">included_columns --&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> out_columns </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">| Column filter option: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Regex</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">¼ configuraciones mapeadas – 25%</t>
   </si>
   <si>
-    <t xml:space="preserve">included_columns --&gt; out_columns | Column filter option: Type</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">included_columns --&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> out_columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> | Column filter option: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Type</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">String to Number</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">included_columns --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">out_columns </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">| Column filter option: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Manual</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">categoricalToContinuous</t>
   </si>
   <si>
     <t xml:space="preserve">1/3 configuraciones mapeadas – 33%</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">included_columns --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">out_columns </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">| Column filter option: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Regex</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Numeric Outliers</t>
   </si>
   <si>
-    <t xml:space="preserve">Sólo mappeado para la configuración - convertir todos los Outliers al valor permitido más cercano utilizando el cálculo de cuartil R_4 y el multiplicador de rango intercuartílico: 1.5</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sólo mappeado para la configuración - convertir todos los </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Outliers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> al valor permitido más cercano utilizando el cálculo de cuartil R_4 y el multiplicador de rango intercuartílico: 1.5</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">configuraciones mapeadas – SIN DETERMINAR</t>
   </si>
   <si>
-    <t xml:space="preserve">Resto de configuraciones relativas a los parámetros: Interquartile range multiplier (k), quartile calculation, Oulier treatment: apply to., treatment option, replacement strategy</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Resto de configuraciones relativas a los parámetros: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Interquartile range multiplier (k), quartile calculation, Oulier treatment: apply to., treatment option, replacement strategy</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Numeric Binner</t>
@@ -462,77 +1072,299 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Binning method: fixed number of bins | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Bin_naming: numbered</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Binning method: Sample quantiles </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">| Bin_naming: numbered</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Binning method: fixed number of bins | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Bin_naming: borders</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Binning method: Sample quantiles | Bin_naming: borders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binning method: fixed number of bins | Bin_naming: midpoints</t>
+      <t xml:space="preserve">Binning method: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">fixed number of bins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> | Bin_naming: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">numbered</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Binning method: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sample quantiles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> | Bin_naming: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">numbered</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Binning method: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">fixed number of bins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> | Bin_naming: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">borders</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Binning method:</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Sample quantiles </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">| Bin_naming: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">borders</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Binning method: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">fixed number of bins </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">| Bin_naming: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">midpoints</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">1/6 configuraciones mapeadas – 16%</t>
   </si>
   <si>
-    <t xml:space="preserve">Binning method: Sample quantiles | Bin_naming: midpoints</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Binning method: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sample quantiles </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">| Bin_naming: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">midpoints</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Math Formula</t>
   </si>
   <si>
-    <t xml:space="preserve">Limitación de mapping - Sólo hecho para dos operandos (columnas o valores fijos) de operaciones SUMA, RESTA, MULTIPLICACIÓN y DIVISIÓN. El mapping del resto de operaciones mátemáticas queda para ser extendidas en el futuro, así como un número diferente de operandos. Mapeo actual: caso base con 2 operandos y 1 operador.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Limitación de Math Formula - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sólo hecho para dos operandos (columnas o valores fijos) de operaciones SUMA, RESTA, MULTIPLICACIÓN y DIVISIÓN.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> El mapping del resto de operaciones mátemáticas queda para ser extendidas en el futuro, así como un número diferente de operandos. Mapeo actual: caso base con 2 operandos y 1 operador.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">mathOpFieldField / mathOpFieldFixValue</t>
@@ -565,7 +1397,27 @@
     <t xml:space="preserve">String Replacer</t>
   </si>
   <si>
-    <t xml:space="preserve">Patern – Replacement text | Replacement type: Literal</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Patern – Replacement text | Replacement type: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Literal</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Patern – Replacement text | Replacement type: Wildcard</t>
@@ -580,19 +1432,95 @@
     <t xml:space="preserve">String Manipulation - String Manipulation (Multi Column)</t>
   </si>
   <si>
-    <t xml:space="preserve">Expresión con function: replace, replaceChars o substr. Limitación para aplicarlo sobre una sóla columna de entrada</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Expresión con function: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">replace, replaceChars o substr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Limitación para aplicarlo sobre una sóla columna de entrada</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Expresión de concatenación de strings con múltiples operandos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(pueden ser columnas o valores fijos)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">join</t>
   </si>
   <si>
     <t xml:space="preserve">3/53 configuraciones mapeadas – 5.6%</t>
   </si>
   <si>
-    <t xml:space="preserve">Functions: capitalize, removeChars, compare, count, countChars, indexOf, indexOfChars, join, joinStep, lastIndexOfChar, length, lowerCase, upperCase, md5Checksum, padLeft, padRight, regexMatcher, removeChars, removeDiacritic, removeDuplicates, regexReplace, removeUmlauts, reverse, string, strip, stripEnd, stripStart, toBoolean, toDouble, toInt, toLong, toNull, toEmpty, urlEncode, urlDecode. Tampoco es posible mappear funciones anidadas. Un ejemplo de función no mappeada es la función join($Name$, " - ", $City$)</t>
+    <t xml:space="preserve">Functions: capitalize, removeChars, compare, count, countChars, indexOf, indexOfChars, joinStep, lastIndexOfChar, length, lowerCase, upperCase, md5Checksum, padLeft, padRight, regexMatcher, removeChars, removeDiacritic, removeDuplicates, regexReplace, removeUmlauts, reverse, string, strip, stripEnd, stripStart, toBoolean, toDouble, toInt, toLong, toNull, toEmpty, urlEncode, urlDecode. Tampoco es posible mappear funciones anidadas.</t>
   </si>
   <si>
     <t xml:space="preserve">Column Expressions</t>
   </si>
   <si>
-    <t xml:space="preserve">Expresión matemática únicamente con dos operandos (columnas o valores fijos) de operaciones SUMA, RESTA, MULTIPLICACIÓN y DIVISIÓN. El mapping del resto de operaciones mátemáticas queda para ser extendidas en el futuro, así como un número diferente de operandos, así como ocurre en el mapeo de dichas operaciones para el nodo MathFormula</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Expresión matemática únicamente con dos operandos (columnas o valores fijos) de operaciones SUMA, RESTA, MULTIPLICACIÓN y DIVISIÓN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. El mapping del resto de operaciones mátemáticas queda para ser extendidas en el futuro, así como un número diferente de operandos, así como ocurre en el mapeo de dichas operaciones para el nodo MathFormula</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">7/185 configuraciones mapeadas – 3.78%</t>
@@ -609,7 +1537,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -667,18 +1595,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="JetBrains Mono"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -690,6 +1606,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -764,7 +1688,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -821,19 +1745,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -841,27 +1753,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -869,7 +1773,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -877,7 +1781,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -885,11 +1789,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -897,19 +1801,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -917,7 +1821,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -998,10 +1902,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:M186"/>
+  <dimension ref="B1:M187"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68"/>
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1218,7 +2122,7 @@
       <c r="H16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -1243,20 +2147,20 @@
       <c r="B19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="10"/>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -1269,7 +2173,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="10"/>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -1282,20 +2186,20 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="10"/>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="10"/>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -1308,7 +2212,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="10"/>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="11" t="s">
@@ -1321,7 +2225,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="10"/>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -1334,7 +2238,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="10"/>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="13" t="s">
@@ -1347,7 +2251,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="10"/>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="13" t="s">
@@ -1359,10 +2263,10 @@
       <c r="H27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -1382,7 +2286,7 @@
       <c r="H29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -1397,8 +2301,8 @@
       <c r="H30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="19"/>
-      <c r="C31" s="20" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -1410,8 +2314,8 @@
       <c r="H31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="19"/>
-      <c r="C32" s="20" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -1423,10 +2327,10 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -1438,7 +2342,7 @@
       <c r="H33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="22"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -1447,14 +2351,14 @@
       <c r="H34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>41</v>
+      <c r="C35" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -1462,8 +2366,8 @@
       <c r="H35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="19"/>
-      <c r="C36" s="23" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="13" t="s">
@@ -1475,11 +2379,11 @@
       <c r="H36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>44</v>
+      <c r="B37" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>15</v>
@@ -1490,7 +2394,7 @@
       <c r="H37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="18"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -1499,11 +2403,11 @@
       <c r="H38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="19" t="s">
-        <v>50</v>
+      <c r="B39" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>20</v>
@@ -1514,11 +2418,11 @@
       <c r="H39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="27.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="25" t="s">
-        <v>52</v>
+      <c r="B40" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>15</v>
@@ -1529,7 +2433,7 @@
       <c r="H40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="18"/>
+      <c r="B41" s="15"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -1537,12 +2441,12 @@
       <c r="H41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="18"/>
+      <c r="B42" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="15"/>
       <c r="D42" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
@@ -1550,10 +2454,10 @@
       <c r="H42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="18"/>
+      <c r="B43" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="15"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -1561,7 +2465,7 @@
       <c r="H43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="15"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -1570,14 +2474,14 @@
       <c r="H44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
@@ -1585,9 +2489,9 @@
       <c r="H45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="28"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>15</v>
@@ -1596,12 +2500,12 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
-      <c r="I46" s="15"/>
+      <c r="I46" s="14"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="28"/>
-      <c r="C47" s="17" t="s">
-        <v>60</v>
+      <c r="B47" s="16"/>
+      <c r="C47" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>15</v>
@@ -1610,12 +2514,12 @@
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
-      <c r="I47" s="15"/>
+      <c r="I47" s="14"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="28"/>
-      <c r="C48" s="17" t="s">
-        <v>61</v>
+      <c r="B48" s="16"/>
+      <c r="C48" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>15</v>
@@ -1624,12 +2528,12 @@
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
-      <c r="I48" s="15"/>
+      <c r="I48" s="14"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="28"/>
-      <c r="C49" s="17" t="s">
-        <v>62</v>
+      <c r="B49" s="16"/>
+      <c r="C49" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>15</v>
@@ -1638,14 +2542,14 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
-      <c r="I49" s="15"/>
+      <c r="I49" s="14"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>64</v>
+      <c r="B50" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>15</v>
@@ -1654,39 +2558,39 @@
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
-      <c r="I50" s="15"/>
+      <c r="I50" s="14"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="15"/>
+      <c r="B51" s="14"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
-      <c r="I51" s="15"/>
+      <c r="I51" s="14"/>
     </row>
     <row r="52" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="28" t="s">
-        <v>65</v>
+      <c r="B52" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
-      <c r="I52" s="15"/>
+      <c r="I52" s="14"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="28" t="s">
-        <v>68</v>
+      <c r="B53" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>15</v>
@@ -1695,90 +2599,90 @@
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
-      <c r="I53" s="15"/>
+      <c r="I53" s="14"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="15"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="14"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
-      <c r="I55" s="15"/>
+      <c r="I55" s="14"/>
     </row>
     <row r="56" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="10"/>
-      <c r="C56" s="8" t="s">
-        <v>73</v>
+      <c r="C56" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
-      <c r="I56" s="15"/>
+      <c r="I56" s="14"/>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="14"/>
+    </row>
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="14"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B59" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="15"/>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="15"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
-      <c r="I59" s="15"/>
+      <c r="I59" s="14"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="31"/>
-      <c r="C60" s="23" t="s">
-        <v>78</v>
+      <c r="B60" s="10"/>
+      <c r="C60" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>15</v>
@@ -1787,14 +2691,14 @@
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
-      <c r="I60" s="15"/>
+      <c r="I60" s="14"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>80</v>
+      <c r="B61" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>15</v>
@@ -1803,7 +2707,7 @@
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
-      <c r="I61" s="15"/>
+      <c r="I61" s="14"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C62" s="8"/>
@@ -1812,120 +2716,125 @@
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
-      <c r="I62" s="15"/>
+      <c r="I62" s="14"/>
     </row>
     <row r="63" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>82</v>
+      <c r="B63" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>84</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
-      <c r="I63" s="15"/>
-    </row>
-    <row r="64" customFormat="false" ht="54.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="8" t="s">
+      <c r="I63" s="14"/>
+    </row>
+    <row r="64" customFormat="false" ht="24.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B64" s="27"/>
+      <c r="C64" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="14"/>
+    </row>
+    <row r="65" customFormat="false" ht="55.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="14"/>
+    </row>
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I66" s="14"/>
+    </row>
+    <row r="67" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B67" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="15"/>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I65" s="15"/>
-    </row>
-    <row r="66" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="15"/>
-    </row>
-    <row r="67" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="32"/>
-      <c r="C67" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="D67" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
-      <c r="I67" s="15"/>
-    </row>
-    <row r="68" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D68" s="30" t="s">
+      <c r="I67" s="14"/>
+    </row>
+    <row r="68" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B68" s="27"/>
+      <c r="C68" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="14"/>
+    </row>
+    <row r="69" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="15"/>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="35"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="15"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="14"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="35"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="8"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
-      <c r="I70" s="15"/>
+      <c r="I70" s="14"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="35"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
+      <c r="I71" s="14"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="35"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="8"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -1933,17 +2842,18 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="75" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="36"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="35"/>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="30"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+    </row>
+    <row r="76" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="31"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
@@ -1951,38 +2861,37 @@
       <c r="H78" s="9"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="35"/>
+      <c r="B79" s="30"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="30"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="35"/>
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="8"/>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="30"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="35"/>
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="8"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
@@ -1991,7 +2900,7 @@
       <c r="H83" s="9"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="35"/>
+      <c r="B84" s="30"/>
       <c r="C84" s="8"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
@@ -2000,7 +2909,7 @@
       <c r="H84" s="9"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="37"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="8"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
@@ -2009,7 +2918,7 @@
       <c r="H85" s="9"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="35"/>
+      <c r="B86" s="32"/>
       <c r="C86" s="8"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
@@ -2018,7 +2927,7 @@
       <c r="H86" s="9"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="35"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="8"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
@@ -2027,7 +2936,7 @@
       <c r="H87" s="9"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="35"/>
+      <c r="B88" s="30"/>
       <c r="C88" s="8"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
@@ -2036,7 +2945,7 @@
       <c r="H88" s="9"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="35"/>
+      <c r="B89" s="30"/>
       <c r="C89" s="8"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
@@ -2045,7 +2954,7 @@
       <c r="H89" s="9"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="37"/>
+      <c r="B90" s="30"/>
       <c r="C90" s="8"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -2054,7 +2963,7 @@
       <c r="H90" s="9"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="35"/>
+      <c r="B91" s="32"/>
       <c r="C91" s="8"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -2063,7 +2972,7 @@
       <c r="H91" s="9"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="35"/>
+      <c r="B92" s="30"/>
       <c r="C92" s="8"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -2072,8 +2981,8 @@
       <c r="H92" s="9"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="35"/>
-      <c r="C93" s="36"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="8"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
@@ -2081,8 +2990,8 @@
       <c r="H93" s="9"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="35"/>
-      <c r="C94" s="36"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="31"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
@@ -2090,8 +2999,8 @@
       <c r="H94" s="9"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="35"/>
-      <c r="C95" s="36"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="31"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
@@ -2099,8 +3008,8 @@
       <c r="H95" s="9"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="35"/>
-      <c r="C96" s="36"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="31"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
@@ -2108,8 +3017,8 @@
       <c r="H96" s="9"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="35"/>
-      <c r="C97" s="36"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="31"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
@@ -2117,8 +3026,8 @@
       <c r="H97" s="9"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="35"/>
-      <c r="C98" s="36"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="31"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
@@ -2126,7 +3035,8 @@
       <c r="H98" s="9"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="35"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="31"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
@@ -2134,7 +3044,7 @@
       <c r="H99" s="9"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="35"/>
+      <c r="B100" s="30"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
@@ -2142,7 +3052,7 @@
       <c r="H100" s="9"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="35"/>
+      <c r="B101" s="30"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
@@ -2150,7 +3060,7 @@
       <c r="H101" s="9"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="38"/>
+      <c r="B102" s="30"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
@@ -2158,7 +3068,7 @@
       <c r="H102" s="9"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="38"/>
+      <c r="B103" s="33"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
@@ -2166,7 +3076,7 @@
       <c r="H103" s="9"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="38"/>
+      <c r="B104" s="33"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
@@ -2174,7 +3084,7 @@
       <c r="H104" s="9"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="38"/>
+      <c r="B105" s="33"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
@@ -2182,7 +3092,7 @@
       <c r="H105" s="9"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="38"/>
+      <c r="B106" s="33"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
@@ -2190,7 +3100,7 @@
       <c r="H106" s="9"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="38"/>
+      <c r="B107" s="33"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
@@ -2198,7 +3108,7 @@
       <c r="H107" s="9"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="38"/>
+      <c r="B108" s="33"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
@@ -2206,7 +3116,7 @@
       <c r="H108" s="9"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="38"/>
+      <c r="B109" s="33"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
@@ -2214,7 +3124,7 @@
       <c r="H109" s="9"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="38"/>
+      <c r="B110" s="33"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
@@ -2222,7 +3132,7 @@
       <c r="H110" s="9"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="38"/>
+      <c r="B111" s="33"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
@@ -2230,14 +3140,15 @@
       <c r="H111" s="9"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="38"/>
+      <c r="B112" s="33"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="33"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
@@ -2755,8 +3666,15 @@
       <c r="G186" s="9"/>
       <c r="H186" s="9"/>
     </row>
+    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="189">
+  <mergeCells count="191">
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:M2"/>
     <mergeCell ref="B3:H3"/>
@@ -2829,6 +3747,7 @@
     <mergeCell ref="D62:H62"/>
     <mergeCell ref="D63:H63"/>
     <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
     <mergeCell ref="D66:H66"/>
     <mergeCell ref="D67:H67"/>
     <mergeCell ref="D68:H68"/>
@@ -2836,7 +3755,7 @@
     <mergeCell ref="D70:H70"/>
     <mergeCell ref="D71:H71"/>
     <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D73:H73"/>
     <mergeCell ref="D78:H78"/>
     <mergeCell ref="D79:H79"/>
     <mergeCell ref="D80:H80"/>
@@ -2946,6 +3865,7 @@
     <mergeCell ref="D184:H184"/>
     <mergeCell ref="D185:H185"/>
     <mergeCell ref="D186:H186"/>
+    <mergeCell ref="D187:H187"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
